--- a/REGULAR/OJT/OLEGARIO NENITA.xlsx
+++ b/REGULAR/OJT/OLEGARIO NENITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94D1CE-9B84-4F4E-9E5B-A5165710BF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="451">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1389,11 +1388,20 @@
   <si>
     <t>6/23,24/2023</t>
   </si>
+  <si>
+    <t>7/5,10/2023</t>
+  </si>
+  <si>
+    <t>7/18,19/2023</t>
+  </si>
+  <si>
+    <t>7/26,27/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2113,7 +2121,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2130,25 +2138,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K721" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K723" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2455,34 +2463,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K721"/>
+  <dimension ref="A2:K723"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A676" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B687" sqref="B687"/>
+      <selection activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="I689" sqref="I689"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2505,7 +2513,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2527,7 +2535,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +2557,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2557,7 +2565,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2570,7 +2578,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -2587,7 +2595,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2631,7 +2639,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>69.559999999999945</v>
+        <v>70.809999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2641,12 +2649,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>54.897999999999968</v>
+        <v>50.147999999999968</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>444</v>
       </c>
@@ -2671,7 +2679,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>98</v>
       </c>
@@ -2686,7 +2694,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34335</v>
       </c>
@@ -2712,7 +2720,7 @@
         <v>34341</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>125</v>
@@ -2734,7 +2742,7 @@
         <v>34361</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34366</v>
       </c>
@@ -2756,7 +2764,7 @@
         <v>34393</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34394</v>
       </c>
@@ -2782,7 +2790,7 @@
         <v>34424</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>125</v>
@@ -2804,7 +2812,7 @@
         <v>34407</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>125</v>
@@ -2826,7 +2834,7 @@
         <v>34409</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>122</v>
@@ -2846,7 +2854,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -2864,7 +2872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -2882,7 +2890,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34425</v>
       </c>
@@ -2906,7 +2914,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>124</v>
@@ -2928,7 +2936,7 @@
         <v>34454</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34455</v>
       </c>
@@ -2954,7 +2962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>95</v>
@@ -2973,7 +2981,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>125</v>
@@ -2992,7 +3000,7 @@
         <v>34471</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>125</v>
@@ -3011,7 +3019,7 @@
         <v>34480</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>125</v>
@@ -3033,7 +3041,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>34486</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>34515</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>125</v>
@@ -3081,7 +3089,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>34516</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>93</v>
@@ -3126,7 +3134,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
@@ -3145,7 +3153,7 @@
         <v>34546</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>34547</v>
       </c>
@@ -3171,7 +3179,7 @@
         <v>34577</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>125</v>
@@ -3193,7 +3201,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>125</v>
@@ -3213,7 +3221,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>34578</v>
       </c>
@@ -3239,7 +3247,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>34608</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>34638</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>125</v>
@@ -3285,7 +3293,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>125</v>
@@ -3305,7 +3313,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>34639</v>
       </c>
@@ -3331,7 +3339,7 @@
         <v>34668</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>125</v>
@@ -3353,7 +3361,7 @@
         <v>34646</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>34669</v>
       </c>
@@ -3379,7 +3387,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>125</v>
@@ -3401,7 +3409,7 @@
         <v>34677</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>99</v>
       </c>
@@ -3423,7 +3431,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>34700</v>
       </c>
@@ -3445,7 +3453,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>124</v>
@@ -3467,7 +3475,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>125</v>
@@ -3489,7 +3497,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>34731</v>
       </c>
@@ -3513,7 +3521,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>124</v>
@@ -3535,7 +3543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>125</v>
@@ -3555,7 +3563,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>34759</v>
       </c>
@@ -3581,7 +3589,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>93</v>
@@ -3603,7 +3611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>136</v>
@@ -3625,7 +3633,7 @@
         <v>34789</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>125</v>
@@ -3645,7 +3653,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>125</v>
@@ -3665,7 +3673,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>34790</v>
       </c>
@@ -3691,7 +3699,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>149</v>
@@ -3713,7 +3721,7 @@
         <v>34819</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>34820</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>152</v>
@@ -3761,7 +3769,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>125</v>
@@ -3783,7 +3791,7 @@
         <v>34834</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>125</v>
@@ -3805,7 +3813,7 @@
         <v>34843</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>125</v>
@@ -3827,7 +3835,7 @@
         <v>34821</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>125</v>
@@ -3849,7 +3857,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>34851</v>
       </c>
@@ -3875,7 +3883,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>132</v>
@@ -3897,7 +3905,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>125</v>
@@ -3919,7 +3927,7 @@
         <v>34872</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>34881</v>
       </c>
@@ -3945,7 +3953,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>132</v>
@@ -3967,7 +3975,7 @@
         <v>34911</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>125</v>
@@ -3989,7 +3997,7 @@
         <v>34898</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>34912</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>124</v>
@@ -4037,7 +4045,7 @@
         <v>34942</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>125</v>
@@ -4059,7 +4067,7 @@
         <v>34925</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>125</v>
@@ -4081,7 +4089,7 @@
         <v>34919</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>34943</v>
       </c>
@@ -4107,7 +4115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>124</v>
@@ -4129,7 +4137,7 @@
         <v>34972</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>125</v>
@@ -4151,7 +4159,7 @@
         <v>34949</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>34973</v>
       </c>
@@ -4177,7 +4185,7 @@
         <v>35003</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>35004</v>
       </c>
@@ -4201,7 +4209,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>35034</v>
       </c>
@@ -4225,7 +4233,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>95</v>
@@ -4247,7 +4255,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>132</v>
@@ -4269,7 +4277,7 @@
         <v>35064</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>125</v>
@@ -4291,7 +4299,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>100</v>
       </c>
@@ -4313,7 +4321,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>35065</v>
       </c>
@@ -4339,7 +4347,7 @@
         <v>35095</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>35096</v>
       </c>
@@ -4359,7 +4367,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>35125</v>
       </c>
@@ -4383,7 +4391,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>125</v>
@@ -4405,7 +4413,7 @@
         <v>35143</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>95</v>
@@ -4427,7 +4435,7 @@
         <v>35155</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>136</v>
@@ -4447,7 +4455,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>35156</v>
       </c>
@@ -4473,7 +4481,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>35186</v>
       </c>
@@ -4499,7 +4507,7 @@
         <v>35216</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>125</v>
@@ -4521,7 +4529,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>35217</v>
       </c>
@@ -4545,7 +4553,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>125</v>
@@ -4564,7 +4572,7 @@
         <v>35223</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>125</v>
@@ -4583,7 +4591,7 @@
         <v>35244</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>35247</v>
       </c>
@@ -4609,7 +4617,7 @@
         <v>35277</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>167</v>
@@ -4629,7 +4637,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>35278</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>35308</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>35309</v>
       </c>
@@ -4681,7 +4689,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>125</v>
@@ -4700,7 +4708,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>170</v>
@@ -4717,7 +4725,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>35339</v>
       </c>
@@ -4743,7 +4751,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>125</v>
@@ -4765,7 +4773,7 @@
         <v>35347</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>125</v>
@@ -4787,7 +4795,7 @@
         <v>35356</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>125</v>
@@ -4809,7 +4817,7 @@
         <v>35369</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>35370</v>
       </c>
@@ -4833,7 +4841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>167</v>
@@ -4850,7 +4858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>124</v>
@@ -4869,7 +4877,7 @@
         <v>35399</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>125</v>
@@ -4888,7 +4896,7 @@
         <v>35383</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>125</v>
@@ -4907,7 +4915,7 @@
         <v>35374</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>35400</v>
       </c>
@@ -4933,7 +4941,7 @@
         <v>35430</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>174</v>
@@ -4952,7 +4960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>125</v>
@@ -4971,7 +4979,7 @@
         <v>35405</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>125</v>
@@ -4990,7 +4998,7 @@
         <v>35412</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>125</v>
@@ -5009,7 +5017,7 @@
         <v>35426</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>101</v>
       </c>
@@ -5031,7 +5039,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>35431</v>
       </c>
@@ -5057,7 +5065,7 @@
         <v>35461</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>125</v>
@@ -5079,7 +5087,7 @@
         <v>35451</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>35462</v>
       </c>
@@ -5105,7 +5113,7 @@
         <v>41227</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>132</v>
@@ -5124,7 +5132,7 @@
         <v>35489</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>35490</v>
       </c>
@@ -5150,7 +5158,7 @@
         <v>35510</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>175</v>
@@ -5172,7 +5180,7 @@
         <v>35520</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>167</v>
@@ -5192,7 +5200,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>125</v>
@@ -5214,7 +5222,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>125</v>
@@ -5236,7 +5244,7 @@
         <v>35506</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>35521</v>
       </c>
@@ -5262,7 +5270,7 @@
         <v>35550</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>167</v>
@@ -5279,7 +5287,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>125</v>
@@ -5298,7 +5306,7 @@
         <v>35537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>125</v>
@@ -5317,7 +5325,7 @@
         <v>35538</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>35551</v>
       </c>
@@ -5343,7 +5351,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>125</v>
@@ -5365,7 +5373,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>35582</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>125</v>
@@ -5410,7 +5418,7 @@
         <v>35586</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>35612</v>
       </c>
@@ -5434,7 +5442,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>124</v>
@@ -5453,7 +5461,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>125</v>
@@ -5472,7 +5480,7 @@
         <v>35627</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>35643</v>
       </c>
@@ -5498,7 +5506,7 @@
         <v>35647</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>125</v>
@@ -5517,7 +5525,7 @@
         <v>35663</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>35674</v>
       </c>
@@ -5541,7 +5549,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -5561,7 +5569,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5579,7 +5587,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>35704</v>
       </c>
@@ -5605,7 +5613,7 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>35735</v>
       </c>
@@ -5629,7 +5637,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>35765</v>
       </c>
@@ -5655,7 +5663,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>95</v>
@@ -5675,7 +5683,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>124</v>
@@ -5697,7 +5705,7 @@
         <v>35795</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>102</v>
       </c>
@@ -5719,7 +5727,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>35796</v>
       </c>
@@ -5743,7 +5751,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>35827</v>
       </c>
@@ -5769,7 +5777,7 @@
         <v>35854</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>186</v>
@@ -5786,7 +5794,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>35855</v>
       </c>
@@ -5812,7 +5820,7 @@
         <v>35885</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>93</v>
@@ -5831,7 +5839,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>164</v>
@@ -5848,7 +5856,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>125</v>
@@ -5867,7 +5875,7 @@
         <v>35877</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>35886</v>
       </c>
@@ -5891,7 +5899,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>125</v>
@@ -5913,7 +5921,7 @@
         <v>35909</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>35916</v>
       </c>
@@ -5939,7 +5947,7 @@
         <v>35944</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>190</v>
@@ -5959,7 +5967,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>125</v>
@@ -5981,7 +5989,7 @@
         <v>35922</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>35947</v>
       </c>
@@ -6007,7 +6015,7 @@
         <v>35954</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>189</v>
@@ -6027,7 +6035,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>167</v>
@@ -6047,7 +6055,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>35977</v>
       </c>
@@ -6073,7 +6081,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>125</v>
@@ -6095,7 +6103,7 @@
         <v>35989</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>36008</v>
       </c>
@@ -6121,7 +6129,7 @@
         <v>36018</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>132</v>
@@ -6143,7 +6151,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>132</v>
@@ -6165,7 +6173,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>152</v>
@@ -6187,7 +6195,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>192</v>
@@ -6207,7 +6215,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>36039</v>
       </c>
@@ -6233,7 +6241,7 @@
         <v>36039</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>181</v>
@@ -6252,7 +6260,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>186</v>
@@ -6269,7 +6277,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="49"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>167</v>
@@ -6286,7 +6294,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>36069</v>
       </c>
@@ -6312,7 +6320,7 @@
         <v>36087</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>199</v>
@@ -6332,7 +6340,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>36100</v>
       </c>
@@ -6356,7 +6364,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>36130</v>
       </c>
@@ -6380,7 +6388,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>201</v>
@@ -6398,7 +6406,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="48" t="s">
         <v>103</v>
       </c>
@@ -6420,7 +6428,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>36161</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>124</v>
@@ -6465,7 +6473,7 @@
         <v>36202</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>202</v>
@@ -6482,7 +6490,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>36192</v>
       </c>
@@ -6506,7 +6514,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>175</v>
@@ -6523,7 +6531,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>167</v>
@@ -6543,7 +6551,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>36220</v>
       </c>
@@ -6569,7 +6577,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>152</v>
@@ -6588,7 +6596,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>172</v>
@@ -6609,7 +6617,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>36251</v>
       </c>
@@ -6635,7 +6643,7 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>210</v>
@@ -6657,7 +6665,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>36281</v>
       </c>
@@ -6681,7 +6689,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>167</v>
@@ -6701,7 +6709,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>36312</v>
       </c>
@@ -6725,7 +6733,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>167</v>
@@ -6747,7 +6755,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>36342</v>
       </c>
@@ -6775,7 +6783,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>214</v>
@@ -6795,7 +6803,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>36373</v>
       </c>
@@ -6821,7 +6829,7 @@
         <v>36381</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>215</v>
@@ -6841,7 +6849,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>36404</v>
       </c>
@@ -6867,7 +6875,7 @@
         <v>36434</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>216</v>
@@ -6887,7 +6895,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>36434</v>
       </c>
@@ -6911,7 +6919,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>36465</v>
       </c>
@@ -6937,7 +6945,7 @@
         <v>36488</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>218</v>
@@ -6957,7 +6965,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>36495</v>
       </c>
@@ -6983,7 +6991,7 @@
         <v>36508</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>218</v>
@@ -7003,7 +7011,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="48" t="s">
         <v>104</v>
       </c>
@@ -7025,7 +7033,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>36526</v>
       </c>
@@ -7049,7 +7057,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>36557</v>
       </c>
@@ -7073,7 +7081,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>36586</v>
       </c>
@@ -7099,7 +7107,7 @@
         <v>36608</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>224</v>
@@ -7116,7 +7124,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>167</v>
@@ -7133,7 +7141,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>167</v>
@@ -7150,7 +7158,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>36617</v>
       </c>
@@ -7174,7 +7182,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>36647</v>
       </c>
@@ -7198,7 +7206,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>167</v>
@@ -7218,7 +7226,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>36678</v>
       </c>
@@ -7244,7 +7252,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>230</v>
@@ -7264,7 +7272,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>36708</v>
       </c>
@@ -7288,7 +7296,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>36739</v>
       </c>
@@ -7312,7 +7320,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>36770</v>
       </c>
@@ -7338,7 +7346,7 @@
         <v>36787</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>227</v>
@@ -7355,7 +7363,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>36800</v>
       </c>
@@ -7379,7 +7387,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>36831</v>
       </c>
@@ -7405,7 +7413,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>235</v>
@@ -7422,7 +7430,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>36861</v>
       </c>
@@ -7446,7 +7454,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="48" t="s">
         <v>105</v>
       </c>
@@ -7468,7 +7476,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>36892</v>
       </c>
@@ -7492,7 +7500,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>36923</v>
       </c>
@@ -7516,7 +7524,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>167</v>
@@ -7536,7 +7544,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>36951</v>
       </c>
@@ -7562,7 +7570,7 @@
         <v>36963</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>93</v>
@@ -7584,7 +7592,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>242</v>
@@ -7604,7 +7612,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>36982</v>
       </c>
@@ -7628,7 +7636,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>167</v>
@@ -7648,7 +7656,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>37012</v>
       </c>
@@ -7672,7 +7680,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>167</v>
@@ -7692,7 +7700,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>37043</v>
       </c>
@@ -7718,7 +7726,7 @@
         <v>37060</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>244</v>
@@ -7738,7 +7746,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>37073</v>
       </c>
@@ -7762,7 +7770,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>37104</v>
       </c>
@@ -7788,7 +7796,7 @@
         <v>37104</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>245</v>
@@ -7810,7 +7818,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>246</v>
@@ -7830,7 +7838,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>37135</v>
       </c>
@@ -7856,7 +7864,7 @@
         <v>37178</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>244</v>
@@ -7876,7 +7884,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>37165</v>
       </c>
@@ -7902,7 +7910,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>136</v>
@@ -7924,7 +7932,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>244</v>
@@ -7944,7 +7952,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>37196</v>
       </c>
@@ -7968,7 +7976,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>37226</v>
       </c>
@@ -7994,7 +8002,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>124</v>
@@ -8016,7 +8024,7 @@
         <v>37238</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>188</v>
@@ -8036,7 +8044,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="48" t="s">
         <v>106</v>
       </c>
@@ -8058,7 +8066,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>37257</v>
       </c>
@@ -8086,7 +8094,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>222</v>
@@ -8106,7 +8114,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>37288</v>
       </c>
@@ -8132,7 +8140,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>37316</v>
       </c>
@@ -8156,7 +8164,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>37347</v>
       </c>
@@ -8180,7 +8188,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>257</v>
@@ -8200,7 +8208,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>167</v>
@@ -8220,7 +8228,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>37377</v>
       </c>
@@ -8244,7 +8252,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>37408</v>
       </c>
@@ -8268,7 +8276,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>37438</v>
       </c>
@@ -8294,7 +8302,7 @@
         <v>37454</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>124</v>
@@ -8316,7 +8324,7 @@
         <v>37459</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>167</v>
@@ -8336,7 +8344,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>37469</v>
       </c>
@@ -8362,7 +8370,7 @@
         <v>37498</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>37500</v>
       </c>
@@ -8388,7 +8396,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>124</v>
@@ -8410,7 +8418,7 @@
         <v>37529</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>37530</v>
       </c>
@@ -8436,7 +8444,7 @@
         <v>37547</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>140</v>
@@ -8456,7 +8464,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>37561</v>
       </c>
@@ -8482,7 +8490,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>124</v>
@@ -8504,7 +8512,7 @@
         <v>37616</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>264</v>
@@ -8521,7 +8529,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="49"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>37591</v>
       </c>
@@ -8545,7 +8553,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="48" t="s">
         <v>107</v>
       </c>
@@ -8567,7 +8575,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>37622</v>
       </c>
@@ -8593,7 +8601,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>266</v>
@@ -8610,7 +8618,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>167</v>
@@ -8627,7 +8635,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>37653</v>
       </c>
@@ -8647,7 +8655,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>37681</v>
       </c>
@@ -8673,7 +8681,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>37712</v>
       </c>
@@ -8699,7 +8707,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>37742</v>
       </c>
@@ -8719,7 +8727,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>37773</v>
       </c>
@@ -8743,7 +8751,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>37803</v>
       </c>
@@ -8769,7 +8777,7 @@
         <v>37806</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>124</v>
@@ -8791,7 +8799,7 @@
         <v>37833</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>270</v>
@@ -8811,7 +8819,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>37834</v>
       </c>
@@ -8837,7 +8845,7 @@
         <v>37848</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>271</v>
@@ -8857,7 +8865,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>37865</v>
       </c>
@@ -8883,7 +8891,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>136</v>
@@ -8905,7 +8913,7 @@
         <v>37879</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>136</v>
@@ -8927,7 +8935,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>272</v>
@@ -8947,7 +8955,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>37895</v>
       </c>
@@ -8973,7 +8981,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>273</v>
@@ -8993,7 +9001,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>167</v>
@@ -9013,7 +9021,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>37926</v>
       </c>
@@ -9039,7 +9047,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>95</v>
@@ -9059,7 +9067,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>124</v>
@@ -9081,7 +9089,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>274</v>
@@ -9101,7 +9109,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>167</v>
@@ -9121,7 +9129,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>37956</v>
       </c>
@@ -9145,7 +9153,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="48" t="s">
         <v>108</v>
       </c>
@@ -9167,7 +9175,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>37987</v>
       </c>
@@ -9193,7 +9201,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>282</v>
@@ -9210,7 +9218,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>38018</v>
       </c>
@@ -9236,7 +9244,7 @@
         <v>38022</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>284</v>
@@ -9256,7 +9264,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>167</v>
@@ -9273,7 +9281,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>167</v>
@@ -9293,7 +9301,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>38047</v>
       </c>
@@ -9319,7 +9327,7 @@
         <v>38065</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>124</v>
@@ -9341,7 +9349,7 @@
         <v>38058</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>285</v>
@@ -9361,7 +9369,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>38078</v>
       </c>
@@ -9387,7 +9395,7 @@
         <v>38098</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>124</v>
@@ -9409,7 +9417,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>286</v>
@@ -9429,7 +9437,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>38108</v>
       </c>
@@ -9455,7 +9463,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>124</v>
@@ -9477,7 +9485,7 @@
         <v>38135</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>287</v>
@@ -9497,7 +9505,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>38139</v>
       </c>
@@ -9523,7 +9531,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>124</v>
@@ -9545,7 +9553,7 @@
         <v>38156</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>167</v>
@@ -9565,7 +9573,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>93</v>
@@ -9587,7 +9595,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>288</v>
@@ -9607,7 +9615,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>38169</v>
       </c>
@@ -9633,7 +9641,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>289</v>
@@ -9653,7 +9661,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>38200</v>
       </c>
@@ -9681,7 +9689,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>95</v>
@@ -9700,7 +9708,7 @@
         <v>38218</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>297</v>
@@ -9717,7 +9725,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>176</v>
@@ -9739,7 +9747,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>38231</v>
       </c>
@@ -9765,7 +9773,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>299</v>
@@ -9782,7 +9790,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>38261</v>
       </c>
@@ -9808,7 +9816,7 @@
         <v>38271</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>217</v>
@@ -9825,7 +9833,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>38292</v>
       </c>
@@ -9851,7 +9859,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>301</v>
@@ -9868,7 +9876,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>38322</v>
       </c>
@@ -9894,7 +9902,7 @@
         <v>38341</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>298</v>
@@ -9918,7 +9926,7 @@
         <v>38337</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>215</v>
@@ -9935,7 +9943,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>109</v>
       </c>
@@ -9957,7 +9965,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>38353</v>
       </c>
@@ -9983,7 +9991,7 @@
         <v>38356</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>167</v>
@@ -10003,7 +10011,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>302</v>
@@ -10023,7 +10031,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>38384</v>
       </c>
@@ -10047,7 +10055,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>167</v>
@@ -10067,7 +10075,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>38412</v>
       </c>
@@ -10087,7 +10095,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>38443</v>
       </c>
@@ -10107,7 +10115,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>38473</v>
       </c>
@@ -10133,7 +10141,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>38504</v>
       </c>
@@ -10153,7 +10161,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>38534</v>
       </c>
@@ -10179,7 +10187,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>124</v>
@@ -10198,7 +10206,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>38565</v>
       </c>
@@ -10224,7 +10232,7 @@
         <v>38576</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>124</v>
@@ -10246,7 +10254,7 @@
         <v>38587</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>38596</v>
       </c>
@@ -10272,7 +10280,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>38626</v>
       </c>
@@ -10298,7 +10306,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>38657</v>
       </c>
@@ -10318,7 +10326,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>38687</v>
       </c>
@@ -10342,7 +10350,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>132</v>
@@ -10362,7 +10370,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="48" t="s">
         <v>110</v>
       </c>
@@ -10384,7 +10392,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>38718</v>
       </c>
@@ -10410,7 +10418,7 @@
         <v>38742</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>38749</v>
       </c>
@@ -10436,7 +10444,7 @@
         <v>38758</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>38777</v>
       </c>
@@ -10462,7 +10470,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>167</v>
@@ -10482,7 +10490,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>311</v>
@@ -10502,7 +10510,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>38808</v>
       </c>
@@ -10528,7 +10536,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>124</v>
@@ -10550,7 +10558,7 @@
         <v>38813</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>124</v>
@@ -10572,7 +10580,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>38838</v>
       </c>
@@ -10598,7 +10606,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>38869</v>
       </c>
@@ -10618,7 +10626,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>38899</v>
       </c>
@@ -10644,7 +10652,7 @@
         <v>38906</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>136</v>
@@ -10666,7 +10674,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>38930</v>
       </c>
@@ -10686,7 +10694,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>38961</v>
       </c>
@@ -10712,7 +10720,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>306</v>
@@ -10734,7 +10742,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>124</v>
@@ -10756,7 +10764,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>38991</v>
       </c>
@@ -10782,7 +10790,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>124</v>
@@ -10804,7 +10812,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>39022</v>
       </c>
@@ -10824,7 +10832,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>39052</v>
       </c>
@@ -10850,7 +10858,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>132</v>
@@ -10872,7 +10880,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="48" t="s">
         <v>111</v>
       </c>
@@ -10896,7 +10904,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>39083</v>
       </c>
@@ -10920,7 +10928,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>167</v>
@@ -10940,7 +10948,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>39114</v>
       </c>
@@ -10966,7 +10974,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>124</v>
@@ -10988,7 +10996,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>298</v>
@@ -11012,7 +11020,7 @@
         <v>39140</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>39142</v>
       </c>
@@ -11038,7 +11046,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>39173</v>
       </c>
@@ -11064,7 +11072,7 @@
         <v>39189</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>306</v>
@@ -11083,7 +11091,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>298</v>
@@ -11104,7 +11112,7 @@
         <v>39225</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>39203</v>
       </c>
@@ -11124,7 +11132,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>39234</v>
       </c>
@@ -11150,7 +11158,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>298</v>
@@ -11171,7 +11179,7 @@
         <v>39247</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>201</v>
@@ -11190,7 +11198,7 @@
         <v>39262</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>39264</v>
       </c>
@@ -11218,7 +11226,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>323</v>
@@ -11240,7 +11248,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>298</v>
@@ -11262,7 +11270,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>39295</v>
       </c>
@@ -11288,7 +11296,7 @@
         <v>39296</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>298</v>
@@ -11312,7 +11320,7 @@
         <v>39313</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>39326</v>
       </c>
@@ -11338,7 +11346,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>323</v>
@@ -11362,7 +11370,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>324</v>
@@ -11382,7 +11390,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>298</v>
@@ -11402,7 +11410,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>39356</v>
       </c>
@@ -11428,7 +11436,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>39387</v>
       </c>
@@ -11448,7 +11456,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>39417</v>
       </c>
@@ -11474,7 +11482,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>323</v>
@@ -11491,7 +11499,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="48" t="s">
         <v>112</v>
       </c>
@@ -11513,7 +11521,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>39448</v>
       </c>
@@ -11539,7 +11547,7 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>244</v>
@@ -11559,7 +11567,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>39479</v>
       </c>
@@ -11585,7 +11593,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>39508</v>
       </c>
@@ -11609,7 +11617,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>124</v>
@@ -11631,7 +11639,7 @@
         <v>39511</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>167</v>
@@ -11651,7 +11659,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>244</v>
@@ -11671,7 +11679,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>39539</v>
       </c>
@@ -11697,7 +11705,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>332</v>
@@ -11717,7 +11725,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>39569</v>
       </c>
@@ -11743,7 +11751,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>328</v>
@@ -11763,7 +11771,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>333</v>
@@ -11787,7 +11795,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>124</v>
@@ -11807,7 +11815,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>330</v>
@@ -11831,7 +11839,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>136</v>
@@ -11853,7 +11861,7 @@
       </c>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>331</v>
@@ -11873,7 +11881,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>167</v>
@@ -11893,7 +11901,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>39600</v>
       </c>
@@ -11919,7 +11927,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>39630</v>
       </c>
@@ -11943,7 +11951,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>39661</v>
       </c>
@@ -11969,7 +11977,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>332</v>
@@ -11986,7 +11994,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>39692</v>
       </c>
@@ -12012,7 +12020,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>39722</v>
       </c>
@@ -12036,7 +12044,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>39753</v>
       </c>
@@ -12060,7 +12068,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>39783</v>
       </c>
@@ -12084,7 +12092,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>124</v>
@@ -12104,7 +12112,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>113</v>
       </c>
@@ -12126,7 +12134,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>39814</v>
       </c>
@@ -12146,7 +12154,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>39845</v>
       </c>
@@ -12166,7 +12174,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>39873</v>
       </c>
@@ -12186,7 +12194,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>39904</v>
       </c>
@@ -12206,7 +12214,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>39934</v>
       </c>
@@ -12230,7 +12238,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>311</v>
@@ -12250,7 +12258,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>39965</v>
       </c>
@@ -12270,7 +12278,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>39995</v>
       </c>
@@ -12290,7 +12298,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>40026</v>
       </c>
@@ -12310,7 +12318,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>40057</v>
       </c>
@@ -12336,7 +12344,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>40087</v>
       </c>
@@ -12356,7 +12364,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>40118</v>
       </c>
@@ -12376,7 +12384,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>40148</v>
       </c>
@@ -12402,7 +12410,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>310</v>
@@ -12419,7 +12427,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>353</v>
@@ -12439,7 +12447,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>348</v>
@@ -12456,7 +12464,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="48" t="s">
         <v>114</v>
       </c>
@@ -12478,7 +12486,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>40179</v>
       </c>
@@ -12498,7 +12506,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>40210</v>
       </c>
@@ -12524,7 +12532,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>40238</v>
       </c>
@@ -12550,7 +12558,7 @@
         <v>40256</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>124</v>
@@ -12572,7 +12580,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>40269</v>
       </c>
@@ -12592,7 +12600,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>40299</v>
       </c>
@@ -12618,7 +12626,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>167</v>
@@ -12638,7 +12646,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>201</v>
@@ -12660,7 +12668,7 @@
         <v>40344</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>40330</v>
       </c>
@@ -12680,7 +12688,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>40360</v>
       </c>
@@ -12704,7 +12712,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>40391</v>
       </c>
@@ -12730,7 +12738,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>40422</v>
       </c>
@@ -12756,7 +12764,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>132</v>
@@ -12775,7 +12783,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>354</v>
@@ -12792,7 +12800,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>40452</v>
       </c>
@@ -12816,7 +12824,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>40483</v>
       </c>
@@ -12840,7 +12848,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>40513</v>
       </c>
@@ -12860,7 +12868,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="48" t="s">
         <v>115</v>
       </c>
@@ -12882,7 +12890,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>40544</v>
       </c>
@@ -12908,7 +12916,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>213</v>
@@ -12929,7 +12937,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>40575</v>
       </c>
@@ -12949,7 +12957,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>40603</v>
       </c>
@@ -12975,7 +12983,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>40634</v>
       </c>
@@ -12999,7 +13007,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>123</v>
@@ -13016,7 +13024,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>40664</v>
       </c>
@@ -13036,7 +13044,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>40695</v>
       </c>
@@ -13060,7 +13068,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>361</v>
@@ -13077,7 +13085,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>40725</v>
       </c>
@@ -13103,7 +13111,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>245</v>
@@ -13125,7 +13133,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>40756</v>
       </c>
@@ -13149,7 +13157,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>40787</v>
       </c>
@@ -13175,7 +13183,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>40817</v>
       </c>
@@ -13201,7 +13209,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>40848</v>
       </c>
@@ -13227,7 +13235,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>40878</v>
       </c>
@@ -13253,7 +13261,7 @@
         <v>40883</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="48" t="s">
         <v>116</v>
       </c>
@@ -13275,7 +13283,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>40909</v>
       </c>
@@ -13295,7 +13303,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>40940</v>
       </c>
@@ -13315,7 +13323,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>40969</v>
       </c>
@@ -13341,7 +13349,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>167</v>
@@ -13358,7 +13366,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>41000</v>
       </c>
@@ -13378,7 +13386,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>41030</v>
       </c>
@@ -13404,7 +13412,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>370</v>
@@ -13424,7 +13432,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>41061</v>
       </c>
@@ -13448,7 +13456,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>41091</v>
       </c>
@@ -13474,7 +13482,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>124</v>
@@ -13496,7 +13504,7 @@
         <v>41133</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>372</v>
@@ -13516,7 +13524,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>41122</v>
       </c>
@@ -13540,7 +13548,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>41153</v>
       </c>
@@ -13566,7 +13574,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>41183</v>
       </c>
@@ -13592,7 +13600,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>311</v>
@@ -13612,7 +13620,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>41214</v>
       </c>
@@ -13632,7 +13640,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>41244</v>
       </c>
@@ -13658,7 +13666,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="48" t="s">
         <v>117</v>
       </c>
@@ -13680,7 +13688,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>41275</v>
       </c>
@@ -13700,7 +13708,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>41306</v>
       </c>
@@ -13724,7 +13732,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>41334</v>
       </c>
@@ -13744,7 +13752,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>41365</v>
       </c>
@@ -13764,7 +13772,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>41395</v>
       </c>
@@ -13784,7 +13792,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>41426</v>
       </c>
@@ -13810,7 +13818,7 @@
         <v>41453</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>381</v>
@@ -13830,7 +13838,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>41456</v>
       </c>
@@ -13850,7 +13858,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>41487</v>
       </c>
@@ -13870,7 +13878,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>41518</v>
       </c>
@@ -13896,7 +13904,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>41548</v>
       </c>
@@ -13916,7 +13924,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>41579</v>
       </c>
@@ -13936,7 +13944,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>41609</v>
       </c>
@@ -13962,7 +13970,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>306</v>
@@ -13981,7 +13989,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>382</v>
@@ -13998,7 +14006,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
         <v>118</v>
       </c>
@@ -14020,7 +14028,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>41640</v>
       </c>
@@ -14044,7 +14052,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>172</v>
@@ -14066,7 +14074,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>41671</v>
       </c>
@@ -14090,7 +14098,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>385</v>
@@ -14107,7 +14115,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>149</v>
@@ -14129,7 +14137,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>41699</v>
       </c>
@@ -14153,7 +14161,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>391</v>
@@ -14175,7 +14183,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>41730</v>
       </c>
@@ -14199,7 +14207,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>132</v>
@@ -14223,7 +14231,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>181</v>
@@ -14247,7 +14255,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>41760</v>
       </c>
@@ -14273,7 +14281,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>395</v>
@@ -14293,7 +14301,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>41791</v>
       </c>
@@ -14319,7 +14327,7 @@
       </c>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>132</v>
@@ -14341,7 +14349,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>41821</v>
       </c>
@@ -14365,7 +14373,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>124</v>
@@ -14387,7 +14395,7 @@
         <v>41879</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>41852</v>
       </c>
@@ -14413,7 +14421,7 @@
       </c>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>132</v>
@@ -14435,7 +14443,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>41883</v>
       </c>
@@ -14463,7 +14471,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>399</v>
@@ -14483,7 +14491,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>41913</v>
       </c>
@@ -14509,7 +14517,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>181</v>
@@ -14533,7 +14541,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>400</v>
@@ -14553,7 +14561,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>41944</v>
       </c>
@@ -14579,7 +14587,7 @@
       </c>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>132</v>
@@ -14601,7 +14609,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>41974</v>
       </c>
@@ -14629,7 +14637,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="48" t="s">
         <v>119</v>
       </c>
@@ -14651,7 +14659,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>42005</v>
       </c>
@@ -14675,7 +14683,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>403</v>
@@ -14695,7 +14703,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>42036</v>
       </c>
@@ -14715,7 +14723,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>42064</v>
       </c>
@@ -14735,7 +14743,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>42095</v>
       </c>
@@ -14761,7 +14769,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>124</v>
@@ -14783,7 +14791,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42125</v>
       </c>
@@ -14803,7 +14811,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>42156</v>
       </c>
@@ -14823,7 +14831,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42186</v>
       </c>
@@ -14843,7 +14851,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>42217</v>
       </c>
@@ -14863,7 +14871,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>42248</v>
       </c>
@@ -14889,7 +14897,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>42278</v>
       </c>
@@ -14915,7 +14923,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>136</v>
@@ -14934,7 +14942,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>167</v>
@@ -14951,7 +14959,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>414</v>
@@ -14968,7 +14976,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>42309</v>
       </c>
@@ -14992,7 +15000,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>42339</v>
       </c>
@@ -15016,7 +15024,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>416</v>
@@ -15033,7 +15041,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="48" t="s">
         <v>120</v>
       </c>
@@ -15052,7 +15060,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>42370</v>
       </c>
@@ -15072,7 +15080,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>42401</v>
       </c>
@@ -15092,7 +15100,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42430</v>
       </c>
@@ -15112,7 +15120,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>42461</v>
       </c>
@@ -15132,7 +15140,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>42491</v>
       </c>
@@ -15152,7 +15160,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>42522</v>
       </c>
@@ -15178,7 +15186,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>42552</v>
       </c>
@@ -15204,7 +15212,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>42583</v>
       </c>
@@ -15230,7 +15238,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>42614</v>
       </c>
@@ -15256,7 +15264,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>42644</v>
       </c>
@@ -15276,7 +15284,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>42675</v>
       </c>
@@ -15296,7 +15304,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>42705</v>
       </c>
@@ -15322,7 +15330,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="48" t="s">
         <v>121</v>
       </c>
@@ -15344,7 +15352,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>42736</v>
       </c>
@@ -15368,7 +15376,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>42767</v>
       </c>
@@ -15394,7 +15402,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>425</v>
@@ -15414,7 +15422,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>42795</v>
       </c>
@@ -15438,7 +15446,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>124</v>
@@ -15460,7 +15468,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>181</v>
@@ -15482,7 +15490,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>384</v>
@@ -15502,7 +15510,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>42826</v>
       </c>
@@ -15528,7 +15536,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>42856</v>
       </c>
@@ -15554,7 +15562,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>42887</v>
       </c>
@@ -15574,7 +15582,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>42917</v>
       </c>
@@ -15594,7 +15602,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>42948</v>
       </c>
@@ -15620,7 +15628,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>124</v>
@@ -15642,7 +15650,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>136</v>
@@ -15664,7 +15672,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>93</v>
@@ -15686,7 +15694,7 @@
         <v>43005</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>42979</v>
       </c>
@@ -15712,7 +15720,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43009</v>
       </c>
@@ -15738,7 +15746,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>43040</v>
       </c>
@@ -15764,7 +15772,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>290</v>
@@ -15788,7 +15796,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>43070</v>
       </c>
@@ -15814,7 +15822,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="48" t="s">
         <v>46</v>
       </c>
@@ -15832,7 +15840,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>43101</v>
       </c>
@@ -15858,7 +15866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43132</v>
       </c>
@@ -15886,7 +15894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>43160</v>
       </c>
@@ -15910,7 +15918,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>43191</v>
       </c>
@@ -15930,7 +15938,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="41">
         <v>43221</v>
       </c>
@@ -15950,7 +15958,7 @@
       <c r="J603" s="12"/>
       <c r="K603" s="15"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>43252</v>
       </c>
@@ -15976,7 +15984,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43282</v>
       </c>
@@ -16002,7 +16010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>43313</v>
       </c>
@@ -16028,7 +16036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>440</v>
@@ -16050,7 +16058,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>441</v>
@@ -16072,7 +16080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43344</v>
       </c>
@@ -16092,7 +16100,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>43374</v>
       </c>
@@ -16112,7 +16120,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>43405</v>
       </c>
@@ -16138,7 +16146,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>43435</v>
       </c>
@@ -16164,7 +16172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="48" t="s">
         <v>58</v>
       </c>
@@ -16182,7 +16190,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>43466</v>
       </c>
@@ -16204,7 +16212,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>51</v>
@@ -16224,7 +16232,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>49</v>
@@ -16248,7 +16256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>43497</v>
       </c>
@@ -16268,7 +16276,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>43525</v>
       </c>
@@ -16288,7 +16296,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>43556</v>
       </c>
@@ -16314,7 +16322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>43586</v>
       </c>
@@ -16338,7 +16346,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>47</v>
@@ -16362,7 +16370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>43617</v>
       </c>
@@ -16382,7 +16390,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>43647</v>
       </c>
@@ -16408,7 +16416,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>49</v>
@@ -16430,7 +16438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>43678</v>
       </c>
@@ -16456,7 +16464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>43709</v>
       </c>
@@ -16482,7 +16490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>442</v>
@@ -16504,7 +16512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>51</v>
@@ -16524,7 +16532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>43739</v>
       </c>
@@ -16544,7 +16552,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>43770</v>
       </c>
@@ -16570,7 +16578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>49</v>
@@ -16592,7 +16600,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>43800</v>
       </c>
@@ -16612,7 +16620,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="23" t="s">
         <v>72</v>
       </c>
@@ -16630,7 +16638,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>43831</v>
       </c>
@@ -16654,7 +16662,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>51</v>
@@ -16674,7 +16682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>51</v>
@@ -16694,7 +16702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>43862</v>
       </c>
@@ -16714,7 +16722,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>43891</v>
       </c>
@@ -16734,7 +16742,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>43922</v>
       </c>
@@ -16754,7 +16762,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>43952</v>
       </c>
@@ -16774,7 +16782,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>43983</v>
       </c>
@@ -16794,7 +16802,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>44013</v>
       </c>
@@ -16820,7 +16828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>47</v>
@@ -16842,7 +16850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44044</v>
       </c>
@@ -16862,7 +16870,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44075</v>
       </c>
@@ -16882,7 +16890,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44105</v>
       </c>
@@ -16902,7 +16910,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>44136</v>
       </c>
@@ -16922,7 +16930,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>44166</v>
       </c>
@@ -16946,7 +16954,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="48" t="s">
         <v>80</v>
       </c>
@@ -16964,7 +16972,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>44197</v>
       </c>
@@ -16990,7 +16998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44228</v>
       </c>
@@ -17010,7 +17018,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44256</v>
       </c>
@@ -17030,7 +17038,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>44287</v>
       </c>
@@ -17050,7 +17058,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>44317</v>
       </c>
@@ -17070,7 +17078,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>44348</v>
       </c>
@@ -17094,7 +17102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44378</v>
       </c>
@@ -17114,7 +17122,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44409</v>
       </c>
@@ -17134,7 +17142,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44440</v>
       </c>
@@ -17160,7 +17168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>44470</v>
       </c>
@@ -17184,7 +17192,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>44501</v>
       </c>
@@ -17204,7 +17212,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>44531</v>
       </c>
@@ -17230,7 +17238,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>84</v>
@@ -17250,7 +17258,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="48" t="s">
         <v>86</v>
       </c>
@@ -17268,7 +17276,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>44562</v>
       </c>
@@ -17294,7 +17302,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>44593</v>
       </c>
@@ -17314,7 +17322,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>44621</v>
       </c>
@@ -17336,7 +17344,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>44652</v>
       </c>
@@ -17358,7 +17366,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>44682</v>
       </c>
@@ -17378,7 +17386,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>44713</v>
       </c>
@@ -17404,7 +17412,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>440</v>
@@ -17426,7 +17434,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>44743</v>
       </c>
@@ -17446,7 +17454,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>44774</v>
       </c>
@@ -17466,7 +17474,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>44805</v>
       </c>
@@ -17492,7 +17500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>44835</v>
       </c>
@@ -17512,7 +17520,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>44866</v>
       </c>
@@ -17538,7 +17546,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>44896</v>
       </c>
@@ -17564,7 +17572,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="48" t="s">
         <v>97</v>
       </c>
@@ -17582,7 +17590,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="49"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>44927</v>
       </c>
@@ -17602,7 +17610,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>44958</v>
       </c>
@@ -17622,7 +17630,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>44986</v>
       </c>
@@ -17648,7 +17656,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>45017</v>
       </c>
@@ -17668,7 +17676,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>45047</v>
       </c>
@@ -17694,7 +17702,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>124</v>
@@ -17716,7 +17724,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>136</v>
@@ -17738,22 +17746,24 @@
         <v>446</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>45078</v>
       </c>
       <c r="B685" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C685" s="13"/>
+      <c r="C685" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D685" s="39">
         <v>1</v>
       </c>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
-      <c r="G685" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G685" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H685" s="39"/>
       <c r="I685" s="9"/>
@@ -17762,7 +17772,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20" t="s">
         <v>136</v>
@@ -17784,11 +17794,13 @@
         <v>447</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>45108</v>
       </c>
-      <c r="B687" s="20"/>
+      <c r="B687" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="C687" s="13"/>
       <c r="D687" s="39"/>
       <c r="E687" s="9"/>
@@ -17797,50 +17809,62 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H687" s="39"/>
+      <c r="H687" s="39">
+        <v>2</v>
+      </c>
       <c r="I687" s="9"/>
       <c r="J687" s="11"/>
-      <c r="K687" s="20"/>
-    </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A688" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B688" s="20"/>
+      <c r="K687" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A688" s="40"/>
+      <c r="B688" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="C688" s="13"/>
       <c r="D688" s="39"/>
       <c r="E688" s="9"/>
-      <c r="F688" s="20"/>
+      <c r="F688" s="51"/>
       <c r="G688" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H688" s="39"/>
+      <c r="H688" s="39">
+        <v>2</v>
+      </c>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
-      <c r="K688" s="20"/>
-    </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A689" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B689" s="20"/>
+      <c r="K688" s="20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A689" s="40"/>
+      <c r="B689" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="C689" s="13"/>
       <c r="D689" s="39"/>
       <c r="E689" s="9"/>
-      <c r="F689" s="20"/>
+      <c r="F689" s="51"/>
       <c r="G689" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H689" s="39"/>
+      <c r="H689" s="39">
+        <v>2</v>
+      </c>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
-      <c r="K689" s="20"/>
-    </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K689" s="20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17856,9 +17880,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17874,9 +17898,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17892,8 +17916,10 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A693" s="40"/>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A693" s="40">
+        <v>45231</v>
+      </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
       <c r="D693" s="39"/>
@@ -17908,8 +17934,10 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A694" s="40"/>
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A694" s="40">
+        <v>45261</v>
+      </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
       <c r="D694" s="39"/>
@@ -17924,7 +17952,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17940,7 +17968,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17956,7 +17984,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17972,7 +18000,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17988,7 +18016,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18004,7 +18032,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18020,7 +18048,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18036,7 +18064,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18052,7 +18080,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18068,7 +18096,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18084,7 +18112,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18100,7 +18128,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18116,7 +18144,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18132,7 +18160,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18148,7 +18176,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18164,7 +18192,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18180,7 +18208,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18196,7 +18224,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18212,7 +18240,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18228,7 +18256,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18244,7 +18272,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18260,7 +18288,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18276,7 +18304,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18292,7 +18320,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18308,7 +18336,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18324,7 +18352,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18340,21 +18368,53 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A721" s="41"/>
-      <c r="B721" s="15"/>
-      <c r="C721" s="42"/>
-      <c r="D721" s="43"/>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A721" s="40"/>
+      <c r="B721" s="20"/>
+      <c r="C721" s="13"/>
+      <c r="D721" s="39"/>
       <c r="E721" s="9"/>
-      <c r="F721" s="15"/>
-      <c r="G721" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H721" s="43"/>
+      <c r="F721" s="20"/>
+      <c r="G721" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H721" s="39"/>
       <c r="I721" s="9"/>
-      <c r="J721" s="12"/>
-      <c r="K721" s="15"/>
+      <c r="J721" s="11"/>
+      <c r="K721" s="20"/>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A722" s="40"/>
+      <c r="B722" s="20"/>
+      <c r="C722" s="13"/>
+      <c r="D722" s="39"/>
+      <c r="E722" s="9"/>
+      <c r="F722" s="20"/>
+      <c r="G722" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H722" s="39"/>
+      <c r="I722" s="9"/>
+      <c r="J722" s="11"/>
+      <c r="K722" s="20"/>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A723" s="41"/>
+      <c r="B723" s="15"/>
+      <c r="C723" s="42"/>
+      <c r="D723" s="43"/>
+      <c r="E723" s="9"/>
+      <c r="F723" s="15"/>
+      <c r="G723" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H723" s="43"/>
+      <c r="I723" s="9"/>
+      <c r="J723" s="12"/>
+      <c r="K723" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18371,10 +18431,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18397,28 +18457,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -18431,7 +18491,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18460,7 +18520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18486,17 +18546,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18517,7 +18577,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18544,7 +18604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18570,7 +18630,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18596,7 +18656,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18622,7 +18682,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18648,7 +18708,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18674,7 +18734,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18700,7 +18760,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18726,7 +18786,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18746,7 +18806,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18766,7 +18826,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18786,7 +18846,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18807,7 +18867,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18828,7 +18888,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18849,7 +18909,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18870,7 +18930,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18891,7 +18951,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18912,7 +18972,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18933,7 +18993,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18954,7 +19014,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18975,7 +19035,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18996,7 +19056,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19017,7 +19077,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19038,7 +19098,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19059,7 +19119,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19080,7 +19140,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19101,7 +19161,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19122,7 +19182,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19143,7 +19203,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19164,7 +19224,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19185,7 +19245,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19206,7 +19266,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19215,7 +19275,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19224,7 +19284,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19233,7 +19293,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19242,7 +19302,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19251,7 +19311,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19260,7 +19320,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19269,7 +19329,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19278,7 +19338,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19287,7 +19347,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19296,7 +19356,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19305,7 +19365,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19314,7 +19374,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19323,7 +19383,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19332,7 +19392,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19341,7 +19401,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19350,7 +19410,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19359,7 +19419,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19368,7 +19428,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19377,7 +19437,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19386,7 +19446,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19395,7 +19455,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19404,7 +19464,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19413,7 +19473,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19422,7 +19482,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19431,7 +19491,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19440,7 +19500,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19449,7 +19509,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19458,7 +19518,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19467,7 +19527,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/OLEGARIO NENITA.xlsx
+++ b/REGULAR/OJT/OLEGARIO NENITA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D422F3-F2DB-4E2D-B649-709E584ADA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="455">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1397,11 +1398,23 @@
   <si>
     <t>7/26,27/2023</t>
   </si>
+  <si>
+    <t>8/10,11/2023</t>
+  </si>
+  <si>
+    <t>9/27-29/2023</t>
+  </si>
+  <si>
+    <t>12/17/2019</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2121,7 +2134,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2130,7 +2143,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -2138,25 +2151,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K723" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K724" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2463,34 +2476,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K723"/>
+  <dimension ref="A2:K724"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A676" activePane="bottomLeft"/>
-      <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="I689" sqref="I689"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A693"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="B708" sqref="B708"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2513,7 +2526,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2535,7 +2548,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2557,7 +2570,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2565,7 +2578,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2578,7 +2591,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -2595,7 +2608,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2630,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2639,7 +2652,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70.809999999999945</v>
+        <v>83.101999999999919</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2649,12 +2662,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.147999999999968</v>
+        <v>66.439999999999941</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>444</v>
       </c>
@@ -2679,7 +2692,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>98</v>
       </c>
@@ -2694,7 +2707,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34335</v>
       </c>
@@ -2720,7 +2733,7 @@
         <v>34341</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>125</v>
@@ -2742,7 +2755,7 @@
         <v>34361</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>34366</v>
       </c>
@@ -2764,7 +2777,7 @@
         <v>34393</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>34394</v>
       </c>
@@ -2790,7 +2803,7 @@
         <v>34424</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>125</v>
@@ -2812,7 +2825,7 @@
         <v>34407</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>125</v>
@@ -2834,7 +2847,7 @@
         <v>34409</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>122</v>
@@ -2854,7 +2867,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -2872,7 +2885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -2890,7 +2903,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>34425</v>
       </c>
@@ -2914,7 +2927,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>124</v>
@@ -2936,7 +2949,7 @@
         <v>34454</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>34455</v>
       </c>
@@ -2962,7 +2975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>95</v>
@@ -2981,7 +2994,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>125</v>
@@ -3000,7 +3013,7 @@
         <v>34471</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>125</v>
@@ -3019,7 +3032,7 @@
         <v>34480</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>125</v>
@@ -3041,7 +3054,7 @@
         <v>34484</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>34486</v>
       </c>
@@ -3067,7 +3080,7 @@
         <v>34515</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>125</v>
@@ -3089,7 +3102,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>34516</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>93</v>
@@ -3134,7 +3147,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>132</v>
@@ -3153,7 +3166,7 @@
         <v>34546</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>34547</v>
       </c>
@@ -3179,7 +3192,7 @@
         <v>34577</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>125</v>
@@ -3201,7 +3214,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>125</v>
@@ -3221,7 +3234,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>34578</v>
       </c>
@@ -3247,7 +3260,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>34608</v>
       </c>
@@ -3273,7 +3286,7 @@
         <v>34638</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>125</v>
@@ -3293,7 +3306,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>125</v>
@@ -3313,7 +3326,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>34639</v>
       </c>
@@ -3339,7 +3352,7 @@
         <v>34668</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>125</v>
@@ -3361,7 +3374,7 @@
         <v>34646</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>34669</v>
       </c>
@@ -3387,7 +3400,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>125</v>
@@ -3409,7 +3422,7 @@
         <v>34677</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>99</v>
       </c>
@@ -3431,7 +3444,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>34700</v>
       </c>
@@ -3453,7 +3466,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>124</v>
@@ -3475,7 +3488,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>125</v>
@@ -3497,7 +3510,7 @@
         <v>34730</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>34731</v>
       </c>
@@ -3521,7 +3534,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>124</v>
@@ -3543,7 +3556,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>125</v>
@@ -3563,7 +3576,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>34759</v>
       </c>
@@ -3589,7 +3602,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>93</v>
@@ -3611,7 +3624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>136</v>
@@ -3633,7 +3646,7 @@
         <v>34789</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>125</v>
@@ -3653,7 +3666,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>125</v>
@@ -3673,7 +3686,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>34790</v>
       </c>
@@ -3699,7 +3712,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>149</v>
@@ -3721,7 +3734,7 @@
         <v>34819</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>34820</v>
       </c>
@@ -3747,7 +3760,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>152</v>
@@ -3769,7 +3782,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>125</v>
@@ -3791,7 +3804,7 @@
         <v>34834</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>125</v>
@@ -3813,7 +3826,7 @@
         <v>34843</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>125</v>
@@ -3835,7 +3848,7 @@
         <v>34821</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>125</v>
@@ -3857,7 +3870,7 @@
         <v>34850</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>34851</v>
       </c>
@@ -3883,7 +3896,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>132</v>
@@ -3905,7 +3918,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>125</v>
@@ -3927,7 +3940,7 @@
         <v>34872</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>34881</v>
       </c>
@@ -3953,7 +3966,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>132</v>
@@ -3975,7 +3988,7 @@
         <v>34911</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>125</v>
@@ -3997,7 +4010,7 @@
         <v>34898</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>34912</v>
       </c>
@@ -4023,7 +4036,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>124</v>
@@ -4045,7 +4058,7 @@
         <v>34942</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>125</v>
@@ -4067,7 +4080,7 @@
         <v>34925</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>125</v>
@@ -4089,7 +4102,7 @@
         <v>34919</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>34943</v>
       </c>
@@ -4115,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>124</v>
@@ -4137,7 +4150,7 @@
         <v>34972</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>125</v>
@@ -4159,7 +4172,7 @@
         <v>34949</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>34973</v>
       </c>
@@ -4185,7 +4198,7 @@
         <v>35003</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>35004</v>
       </c>
@@ -4209,7 +4222,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>35034</v>
       </c>
@@ -4233,7 +4246,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>95</v>
@@ -4255,7 +4268,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>132</v>
@@ -4277,7 +4290,7 @@
         <v>35064</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>125</v>
@@ -4299,7 +4312,7 @@
         <v>35044</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>100</v>
       </c>
@@ -4321,7 +4334,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>35065</v>
       </c>
@@ -4347,7 +4360,7 @@
         <v>35095</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>35096</v>
       </c>
@@ -4367,7 +4380,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>35125</v>
       </c>
@@ -4391,7 +4404,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>125</v>
@@ -4413,7 +4426,7 @@
         <v>35143</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>95</v>
@@ -4435,7 +4448,7 @@
         <v>35155</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>136</v>
@@ -4455,7 +4468,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>35156</v>
       </c>
@@ -4481,7 +4494,7 @@
         <v>35185</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>35186</v>
       </c>
@@ -4507,7 +4520,7 @@
         <v>35216</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>125</v>
@@ -4529,7 +4542,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>35217</v>
       </c>
@@ -4553,7 +4566,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>125</v>
@@ -4572,7 +4585,7 @@
         <v>35223</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>125</v>
@@ -4591,7 +4604,7 @@
         <v>35244</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>35247</v>
       </c>
@@ -4617,7 +4630,7 @@
         <v>35277</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>167</v>
@@ -4637,7 +4650,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>35278</v>
       </c>
@@ -4663,7 +4676,7 @@
         <v>35308</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>35309</v>
       </c>
@@ -4689,7 +4702,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>125</v>
@@ -4708,7 +4721,7 @@
         <v>35338</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>170</v>
@@ -4725,7 +4738,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>35339</v>
       </c>
@@ -4751,7 +4764,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>125</v>
@@ -4773,7 +4786,7 @@
         <v>35347</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>125</v>
@@ -4795,7 +4808,7 @@
         <v>35356</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>125</v>
@@ -4817,7 +4830,7 @@
         <v>35369</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>35370</v>
       </c>
@@ -4841,7 +4854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>167</v>
@@ -4858,7 +4871,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>124</v>
@@ -4877,7 +4890,7 @@
         <v>35399</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>125</v>
@@ -4896,7 +4909,7 @@
         <v>35383</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>125</v>
@@ -4915,7 +4928,7 @@
         <v>35374</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>35400</v>
       </c>
@@ -4941,7 +4954,7 @@
         <v>35430</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>174</v>
@@ -4960,7 +4973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>125</v>
@@ -4979,7 +4992,7 @@
         <v>35405</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>125</v>
@@ -4998,7 +5011,7 @@
         <v>35412</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>125</v>
@@ -5017,7 +5030,7 @@
         <v>35426</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>101</v>
       </c>
@@ -5039,7 +5052,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>35431</v>
       </c>
@@ -5065,7 +5078,7 @@
         <v>35461</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>125</v>
@@ -5087,7 +5100,7 @@
         <v>35451</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>35462</v>
       </c>
@@ -5113,7 +5126,7 @@
         <v>41227</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>132</v>
@@ -5132,7 +5145,7 @@
         <v>35489</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>35490</v>
       </c>
@@ -5158,7 +5171,7 @@
         <v>35510</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>175</v>
@@ -5180,7 +5193,7 @@
         <v>35520</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>167</v>
@@ -5200,7 +5213,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>125</v>
@@ -5222,7 +5235,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>125</v>
@@ -5244,7 +5257,7 @@
         <v>35506</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>35521</v>
       </c>
@@ -5270,7 +5283,7 @@
         <v>35550</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>167</v>
@@ -5287,7 +5300,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>125</v>
@@ -5306,7 +5319,7 @@
         <v>35537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>125</v>
@@ -5325,7 +5338,7 @@
         <v>35538</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>35551</v>
       </c>
@@ -5351,7 +5364,7 @@
         <v>35581</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>125</v>
@@ -5373,7 +5386,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>35582</v>
       </c>
@@ -5399,7 +5412,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>125</v>
@@ -5418,7 +5431,7 @@
         <v>35586</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>35612</v>
       </c>
@@ -5442,7 +5455,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>124</v>
@@ -5461,7 +5474,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>125</v>
@@ -5480,7 +5493,7 @@
         <v>35627</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>35643</v>
       </c>
@@ -5506,7 +5519,7 @@
         <v>35647</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>125</v>
@@ -5525,7 +5538,7 @@
         <v>35663</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>35674</v>
       </c>
@@ -5549,7 +5562,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -5569,7 +5582,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5587,7 +5600,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>35704</v>
       </c>
@@ -5613,7 +5626,7 @@
         <v>35704</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>35735</v>
       </c>
@@ -5637,7 +5650,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>35765</v>
       </c>
@@ -5663,7 +5676,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>95</v>
@@ -5683,7 +5696,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>124</v>
@@ -5705,7 +5718,7 @@
         <v>35795</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>102</v>
       </c>
@@ -5727,7 +5740,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>35796</v>
       </c>
@@ -5751,7 +5764,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>35827</v>
       </c>
@@ -5777,7 +5790,7 @@
         <v>35854</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>186</v>
@@ -5794,7 +5807,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>35855</v>
       </c>
@@ -5820,7 +5833,7 @@
         <v>35885</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>93</v>
@@ -5839,7 +5852,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>164</v>
@@ -5856,7 +5869,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>125</v>
@@ -5875,7 +5888,7 @@
         <v>35877</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>35886</v>
       </c>
@@ -5899,7 +5912,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>125</v>
@@ -5921,7 +5934,7 @@
         <v>35909</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>35916</v>
       </c>
@@ -5947,7 +5960,7 @@
         <v>35944</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>190</v>
@@ -5967,7 +5980,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>125</v>
@@ -5989,7 +6002,7 @@
         <v>35922</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>35947</v>
       </c>
@@ -6015,7 +6028,7 @@
         <v>35954</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>189</v>
@@ -6035,7 +6048,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>167</v>
@@ -6055,7 +6068,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>35977</v>
       </c>
@@ -6081,7 +6094,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>125</v>
@@ -6103,7 +6116,7 @@
         <v>35989</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>36008</v>
       </c>
@@ -6129,7 +6142,7 @@
         <v>36018</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>132</v>
@@ -6151,7 +6164,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>132</v>
@@ -6173,7 +6186,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>152</v>
@@ -6195,7 +6208,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>192</v>
@@ -6215,7 +6228,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>36039</v>
       </c>
@@ -6241,7 +6254,7 @@
         <v>36039</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>181</v>
@@ -6260,7 +6273,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>186</v>
@@ -6277,7 +6290,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="49"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>167</v>
@@ -6294,7 +6307,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>36069</v>
       </c>
@@ -6320,7 +6333,7 @@
         <v>36087</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>199</v>
@@ -6340,7 +6353,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>36100</v>
       </c>
@@ -6364,7 +6377,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>36130</v>
       </c>
@@ -6388,7 +6401,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>201</v>
@@ -6406,7 +6419,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="48" t="s">
         <v>103</v>
       </c>
@@ -6428,7 +6441,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>36161</v>
       </c>
@@ -6454,7 +6467,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>124</v>
@@ -6473,7 +6486,7 @@
         <v>36202</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>202</v>
@@ -6490,7 +6503,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>36192</v>
       </c>
@@ -6514,7 +6527,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>175</v>
@@ -6531,7 +6544,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>167</v>
@@ -6551,7 +6564,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>36220</v>
       </c>
@@ -6577,7 +6590,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>152</v>
@@ -6596,7 +6609,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>172</v>
@@ -6617,7 +6630,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>36251</v>
       </c>
@@ -6643,7 +6656,7 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>210</v>
@@ -6665,7 +6678,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>36281</v>
       </c>
@@ -6689,7 +6702,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>167</v>
@@ -6709,7 +6722,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>36312</v>
       </c>
@@ -6733,7 +6746,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>167</v>
@@ -6755,7 +6768,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>36342</v>
       </c>
@@ -6783,7 +6796,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>214</v>
@@ -6803,7 +6816,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>36373</v>
       </c>
@@ -6829,7 +6842,7 @@
         <v>36381</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>215</v>
@@ -6849,7 +6862,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>36404</v>
       </c>
@@ -6875,7 +6888,7 @@
         <v>36434</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>216</v>
@@ -6895,7 +6908,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>36434</v>
       </c>
@@ -6919,7 +6932,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>36465</v>
       </c>
@@ -6945,7 +6958,7 @@
         <v>36488</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>218</v>
@@ -6965,7 +6978,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>36495</v>
       </c>
@@ -6991,7 +7004,7 @@
         <v>36508</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>218</v>
@@ -7011,7 +7024,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="48" t="s">
         <v>104</v>
       </c>
@@ -7033,7 +7046,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>36526</v>
       </c>
@@ -7057,7 +7070,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>36557</v>
       </c>
@@ -7081,7 +7094,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>36586</v>
       </c>
@@ -7107,7 +7120,7 @@
         <v>36608</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>224</v>
@@ -7124,7 +7137,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>167</v>
@@ -7141,7 +7154,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>167</v>
@@ -7158,7 +7171,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>36617</v>
       </c>
@@ -7182,7 +7195,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>36647</v>
       </c>
@@ -7206,7 +7219,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>167</v>
@@ -7226,7 +7239,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>36678</v>
       </c>
@@ -7252,7 +7265,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>230</v>
@@ -7272,7 +7285,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>36708</v>
       </c>
@@ -7296,7 +7309,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>36739</v>
       </c>
@@ -7320,7 +7333,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>36770</v>
       </c>
@@ -7346,7 +7359,7 @@
         <v>36787</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>227</v>
@@ -7363,7 +7376,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>36800</v>
       </c>
@@ -7387,7 +7400,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>36831</v>
       </c>
@@ -7413,7 +7426,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>235</v>
@@ -7430,7 +7443,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>36861</v>
       </c>
@@ -7454,7 +7467,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="48" t="s">
         <v>105</v>
       </c>
@@ -7476,7 +7489,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>36892</v>
       </c>
@@ -7500,7 +7513,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>36923</v>
       </c>
@@ -7524,7 +7537,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>167</v>
@@ -7544,7 +7557,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>36951</v>
       </c>
@@ -7570,7 +7583,7 @@
         <v>36963</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>93</v>
@@ -7592,7 +7605,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>242</v>
@@ -7612,7 +7625,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>36982</v>
       </c>
@@ -7636,7 +7649,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>167</v>
@@ -7656,7 +7669,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>37012</v>
       </c>
@@ -7680,7 +7693,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>167</v>
@@ -7700,7 +7713,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>37043</v>
       </c>
@@ -7726,7 +7739,7 @@
         <v>37060</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>244</v>
@@ -7746,7 +7759,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>37073</v>
       </c>
@@ -7770,7 +7783,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>37104</v>
       </c>
@@ -7796,7 +7809,7 @@
         <v>37104</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>245</v>
@@ -7818,7 +7831,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>246</v>
@@ -7838,7 +7851,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>37135</v>
       </c>
@@ -7864,7 +7877,7 @@
         <v>37178</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>244</v>
@@ -7884,7 +7897,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>37165</v>
       </c>
@@ -7910,7 +7923,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>136</v>
@@ -7932,7 +7945,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>244</v>
@@ -7952,7 +7965,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>37196</v>
       </c>
@@ -7976,7 +7989,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>37226</v>
       </c>
@@ -8002,7 +8015,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>124</v>
@@ -8024,7 +8037,7 @@
         <v>37238</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>188</v>
@@ -8044,7 +8057,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="48" t="s">
         <v>106</v>
       </c>
@@ -8066,7 +8079,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>37257</v>
       </c>
@@ -8094,7 +8107,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>222</v>
@@ -8114,7 +8127,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>37288</v>
       </c>
@@ -8140,7 +8153,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>37316</v>
       </c>
@@ -8164,7 +8177,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>37347</v>
       </c>
@@ -8188,7 +8201,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>257</v>
@@ -8208,7 +8221,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>167</v>
@@ -8228,7 +8241,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>37377</v>
       </c>
@@ -8252,7 +8265,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>37408</v>
       </c>
@@ -8276,7 +8289,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>37438</v>
       </c>
@@ -8302,7 +8315,7 @@
         <v>37454</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>124</v>
@@ -8324,7 +8337,7 @@
         <v>37459</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>167</v>
@@ -8344,7 +8357,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>37469</v>
       </c>
@@ -8370,7 +8383,7 @@
         <v>37498</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>37500</v>
       </c>
@@ -8396,7 +8409,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>124</v>
@@ -8418,7 +8431,7 @@
         <v>37529</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>37530</v>
       </c>
@@ -8444,7 +8457,7 @@
         <v>37547</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>140</v>
@@ -8464,7 +8477,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>37561</v>
       </c>
@@ -8490,7 +8503,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>124</v>
@@ -8512,7 +8525,7 @@
         <v>37616</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>264</v>
@@ -8529,7 +8542,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="49"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>37591</v>
       </c>
@@ -8553,7 +8566,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="48" t="s">
         <v>107</v>
       </c>
@@ -8575,7 +8588,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>37622</v>
       </c>
@@ -8601,7 +8614,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>266</v>
@@ -8618,7 +8631,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>167</v>
@@ -8635,7 +8648,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>37653</v>
       </c>
@@ -8655,7 +8668,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>37681</v>
       </c>
@@ -8681,7 +8694,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>37712</v>
       </c>
@@ -8707,7 +8720,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>37742</v>
       </c>
@@ -8727,7 +8740,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>37773</v>
       </c>
@@ -8751,7 +8764,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>37803</v>
       </c>
@@ -8777,7 +8790,7 @@
         <v>37806</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>124</v>
@@ -8799,7 +8812,7 @@
         <v>37833</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>270</v>
@@ -8819,7 +8832,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>37834</v>
       </c>
@@ -8845,7 +8858,7 @@
         <v>37848</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>271</v>
@@ -8865,7 +8878,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>37865</v>
       </c>
@@ -8891,7 +8904,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>136</v>
@@ -8913,7 +8926,7 @@
         <v>37879</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>136</v>
@@ -8935,7 +8948,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>272</v>
@@ -8955,7 +8968,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>37895</v>
       </c>
@@ -8981,7 +8994,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>273</v>
@@ -9001,7 +9014,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>167</v>
@@ -9021,7 +9034,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>37926</v>
       </c>
@@ -9047,7 +9060,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>95</v>
@@ -9067,7 +9080,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>124</v>
@@ -9089,7 +9102,7 @@
         <v>37944</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>274</v>
@@ -9109,7 +9122,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>167</v>
@@ -9129,7 +9142,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>37956</v>
       </c>
@@ -9153,7 +9166,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="48" t="s">
         <v>108</v>
       </c>
@@ -9175,7 +9188,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>37987</v>
       </c>
@@ -9201,7 +9214,7 @@
         <v>38007</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>282</v>
@@ -9218,7 +9231,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>38018</v>
       </c>
@@ -9244,7 +9257,7 @@
         <v>38022</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>284</v>
@@ -9264,7 +9277,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>167</v>
@@ -9281,7 +9294,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>167</v>
@@ -9301,7 +9314,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>38047</v>
       </c>
@@ -9327,7 +9340,7 @@
         <v>38065</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>124</v>
@@ -9349,7 +9362,7 @@
         <v>38058</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>285</v>
@@ -9369,7 +9382,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>38078</v>
       </c>
@@ -9395,7 +9408,7 @@
         <v>38098</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>124</v>
@@ -9417,7 +9430,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>286</v>
@@ -9437,7 +9450,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>38108</v>
       </c>
@@ -9463,7 +9476,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>124</v>
@@ -9485,7 +9498,7 @@
         <v>38135</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>287</v>
@@ -9505,7 +9518,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>38139</v>
       </c>
@@ -9531,7 +9544,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>124</v>
@@ -9553,7 +9566,7 @@
         <v>38156</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>167</v>
@@ -9573,7 +9586,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>93</v>
@@ -9595,7 +9608,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>288</v>
@@ -9615,7 +9628,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>38169</v>
       </c>
@@ -9641,7 +9654,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>289</v>
@@ -9661,7 +9674,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>38200</v>
       </c>
@@ -9689,7 +9702,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>95</v>
@@ -9708,7 +9721,7 @@
         <v>38218</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>297</v>
@@ -9725,7 +9738,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>176</v>
@@ -9747,7 +9760,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>38231</v>
       </c>
@@ -9773,7 +9786,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>299</v>
@@ -9790,7 +9803,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>38261</v>
       </c>
@@ -9816,7 +9829,7 @@
         <v>38271</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>217</v>
@@ -9833,7 +9846,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>38292</v>
       </c>
@@ -9859,7 +9872,7 @@
         <v>38316</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>301</v>
@@ -9876,7 +9889,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>38322</v>
       </c>
@@ -9902,7 +9915,7 @@
         <v>38341</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>298</v>
@@ -9926,7 +9939,7 @@
         <v>38337</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>215</v>
@@ -9943,7 +9956,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
         <v>109</v>
       </c>
@@ -9965,7 +9978,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>38353</v>
       </c>
@@ -9991,7 +10004,7 @@
         <v>38356</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>167</v>
@@ -10011,7 +10024,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>302</v>
@@ -10031,7 +10044,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>38384</v>
       </c>
@@ -10055,7 +10068,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>167</v>
@@ -10075,7 +10088,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>38412</v>
       </c>
@@ -10095,7 +10108,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>38443</v>
       </c>
@@ -10115,7 +10128,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>38473</v>
       </c>
@@ -10141,7 +10154,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>38504</v>
       </c>
@@ -10161,7 +10174,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>38534</v>
       </c>
@@ -10187,7 +10200,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>124</v>
@@ -10206,7 +10219,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>38565</v>
       </c>
@@ -10232,7 +10245,7 @@
         <v>38576</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>124</v>
@@ -10254,7 +10267,7 @@
         <v>38587</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>38596</v>
       </c>
@@ -10280,7 +10293,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>38626</v>
       </c>
@@ -10306,7 +10319,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>38657</v>
       </c>
@@ -10326,7 +10339,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>38687</v>
       </c>
@@ -10350,7 +10363,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>132</v>
@@ -10370,7 +10383,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="48" t="s">
         <v>110</v>
       </c>
@@ -10392,7 +10405,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>38718</v>
       </c>
@@ -10418,7 +10431,7 @@
         <v>38742</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>38749</v>
       </c>
@@ -10444,7 +10457,7 @@
         <v>38758</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>38777</v>
       </c>
@@ -10470,7 +10483,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>167</v>
@@ -10490,7 +10503,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>311</v>
@@ -10510,7 +10523,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>38808</v>
       </c>
@@ -10536,7 +10549,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>124</v>
@@ -10558,7 +10571,7 @@
         <v>38813</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>124</v>
@@ -10580,7 +10593,7 @@
         <v>38833</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>38838</v>
       </c>
@@ -10606,7 +10619,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>38869</v>
       </c>
@@ -10626,7 +10639,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>38899</v>
       </c>
@@ -10652,7 +10665,7 @@
         <v>38906</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>136</v>
@@ -10674,7 +10687,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>38930</v>
       </c>
@@ -10694,7 +10707,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>38961</v>
       </c>
@@ -10720,7 +10733,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>306</v>
@@ -10742,7 +10755,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>124</v>
@@ -10764,7 +10777,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>38991</v>
       </c>
@@ -10790,7 +10803,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>124</v>
@@ -10812,7 +10825,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>39022</v>
       </c>
@@ -10832,7 +10845,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>39052</v>
       </c>
@@ -10858,7 +10871,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>132</v>
@@ -10880,7 +10893,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="48" t="s">
         <v>111</v>
       </c>
@@ -10904,7 +10917,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>39083</v>
       </c>
@@ -10928,7 +10941,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>167</v>
@@ -10948,7 +10961,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>39114</v>
       </c>
@@ -10974,7 +10987,7 @@
         <v>39126</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>124</v>
@@ -10996,7 +11009,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>298</v>
@@ -11020,7 +11033,7 @@
         <v>39140</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>39142</v>
       </c>
@@ -11046,7 +11059,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>39173</v>
       </c>
@@ -11072,7 +11085,7 @@
         <v>39189</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>306</v>
@@ -11091,7 +11104,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>298</v>
@@ -11112,7 +11125,7 @@
         <v>39225</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>39203</v>
       </c>
@@ -11132,7 +11145,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>39234</v>
       </c>
@@ -11158,7 +11171,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>298</v>
@@ -11179,7 +11192,7 @@
         <v>39247</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>201</v>
@@ -11198,7 +11211,7 @@
         <v>39262</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>39264</v>
       </c>
@@ -11226,7 +11239,7 @@
         <v>39282</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>323</v>
@@ -11248,7 +11261,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>298</v>
@@ -11270,7 +11283,7 @@
         <v>39290</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>39295</v>
       </c>
@@ -11296,7 +11309,7 @@
         <v>39296</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>298</v>
@@ -11320,7 +11333,7 @@
         <v>39313</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>39326</v>
       </c>
@@ -11346,7 +11359,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>323</v>
@@ -11370,7 +11383,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>324</v>
@@ -11390,7 +11403,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>298</v>
@@ -11410,7 +11423,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>39356</v>
       </c>
@@ -11436,7 +11449,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>39387</v>
       </c>
@@ -11456,7 +11469,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>39417</v>
       </c>
@@ -11482,7 +11495,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>323</v>
@@ -11499,7 +11512,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="48" t="s">
         <v>112</v>
       </c>
@@ -11521,7 +11534,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>39448</v>
       </c>
@@ -11547,7 +11560,7 @@
         <v>39471</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>244</v>
@@ -11567,7 +11580,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>39479</v>
       </c>
@@ -11593,7 +11606,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>39508</v>
       </c>
@@ -11617,7 +11630,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>124</v>
@@ -11639,7 +11652,7 @@
         <v>39511</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>167</v>
@@ -11659,7 +11672,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>244</v>
@@ -11679,7 +11692,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>39539</v>
       </c>
@@ -11705,7 +11718,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>332</v>
@@ -11725,7 +11738,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>39569</v>
       </c>
@@ -11751,7 +11764,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>328</v>
@@ -11771,7 +11784,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>333</v>
@@ -11795,7 +11808,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>124</v>
@@ -11815,7 +11828,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>330</v>
@@ -11839,7 +11852,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>136</v>
@@ -11861,7 +11874,7 @@
       </c>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>331</v>
@@ -11881,7 +11894,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>167</v>
@@ -11901,7 +11914,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>39600</v>
       </c>
@@ -11927,7 +11940,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>39630</v>
       </c>
@@ -11951,7 +11964,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>39661</v>
       </c>
@@ -11977,7 +11990,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>332</v>
@@ -11994,7 +12007,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>39692</v>
       </c>
@@ -12020,7 +12033,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>39722</v>
       </c>
@@ -12044,7 +12057,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>39753</v>
       </c>
@@ -12068,7 +12081,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>39783</v>
       </c>
@@ -12092,7 +12105,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>124</v>
@@ -12112,7 +12125,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="48" t="s">
         <v>113</v>
       </c>
@@ -12134,7 +12147,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>39814</v>
       </c>
@@ -12154,7 +12167,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>39845</v>
       </c>
@@ -12174,7 +12187,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>39873</v>
       </c>
@@ -12194,7 +12207,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>39904</v>
       </c>
@@ -12214,7 +12227,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>39934</v>
       </c>
@@ -12238,7 +12251,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>311</v>
@@ -12258,7 +12271,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>39965</v>
       </c>
@@ -12278,7 +12291,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>39995</v>
       </c>
@@ -12298,7 +12311,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>40026</v>
       </c>
@@ -12318,7 +12331,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>40057</v>
       </c>
@@ -12344,7 +12357,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>40087</v>
       </c>
@@ -12364,7 +12377,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>40118</v>
       </c>
@@ -12384,7 +12397,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>40148</v>
       </c>
@@ -12410,7 +12423,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>310</v>
@@ -12427,7 +12440,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>353</v>
@@ -12447,7 +12460,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>348</v>
@@ -12464,7 +12477,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="48" t="s">
         <v>114</v>
       </c>
@@ -12486,7 +12499,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>40179</v>
       </c>
@@ -12506,7 +12519,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>40210</v>
       </c>
@@ -12532,7 +12545,7 @@
         <v>40233</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>40238</v>
       </c>
@@ -12558,7 +12571,7 @@
         <v>40256</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>124</v>
@@ -12580,7 +12593,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>40269</v>
       </c>
@@ -12600,7 +12613,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>40299</v>
       </c>
@@ -12626,7 +12639,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>167</v>
@@ -12646,7 +12659,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>201</v>
@@ -12668,7 +12681,7 @@
         <v>40344</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>40330</v>
       </c>
@@ -12688,7 +12701,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>40360</v>
       </c>
@@ -12712,7 +12725,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>40391</v>
       </c>
@@ -12738,7 +12751,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>40422</v>
       </c>
@@ -12764,7 +12777,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>132</v>
@@ -12783,7 +12796,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>354</v>
@@ -12800,7 +12813,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>40452</v>
       </c>
@@ -12824,7 +12837,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>40483</v>
       </c>
@@ -12848,7 +12861,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>40513</v>
       </c>
@@ -12868,7 +12881,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="48" t="s">
         <v>115</v>
       </c>
@@ -12890,7 +12903,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>40544</v>
       </c>
@@ -12916,7 +12929,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>213</v>
@@ -12937,7 +12950,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>40575</v>
       </c>
@@ -12957,7 +12970,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>40603</v>
       </c>
@@ -12983,7 +12996,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>40634</v>
       </c>
@@ -13007,7 +13020,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>123</v>
@@ -13024,7 +13037,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>40664</v>
       </c>
@@ -13044,7 +13057,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>40695</v>
       </c>
@@ -13068,7 +13081,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>361</v>
@@ -13085,7 +13098,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>40725</v>
       </c>
@@ -13111,7 +13124,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>245</v>
@@ -13133,7 +13146,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>40756</v>
       </c>
@@ -13157,7 +13170,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>40787</v>
       </c>
@@ -13183,7 +13196,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>40817</v>
       </c>
@@ -13209,7 +13222,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>40848</v>
       </c>
@@ -13235,7 +13248,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>40878</v>
       </c>
@@ -13261,7 +13274,7 @@
         <v>40883</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="48" t="s">
         <v>116</v>
       </c>
@@ -13283,7 +13296,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>40909</v>
       </c>
@@ -13303,7 +13316,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>40940</v>
       </c>
@@ -13323,7 +13336,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>40969</v>
       </c>
@@ -13349,7 +13362,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>167</v>
@@ -13366,7 +13379,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>41000</v>
       </c>
@@ -13386,7 +13399,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>41030</v>
       </c>
@@ -13412,7 +13425,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>370</v>
@@ -13432,7 +13445,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>41061</v>
       </c>
@@ -13456,7 +13469,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>41091</v>
       </c>
@@ -13482,7 +13495,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>124</v>
@@ -13504,7 +13517,7 @@
         <v>41133</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>372</v>
@@ -13524,7 +13537,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>41122</v>
       </c>
@@ -13548,7 +13561,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>41153</v>
       </c>
@@ -13574,7 +13587,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>41183</v>
       </c>
@@ -13600,7 +13613,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>311</v>
@@ -13620,7 +13633,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>41214</v>
       </c>
@@ -13640,7 +13653,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>41244</v>
       </c>
@@ -13666,7 +13679,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="48" t="s">
         <v>117</v>
       </c>
@@ -13688,7 +13701,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>41275</v>
       </c>
@@ -13708,7 +13721,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>41306</v>
       </c>
@@ -13732,7 +13745,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>41334</v>
       </c>
@@ -13752,7 +13765,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>41365</v>
       </c>
@@ -13772,7 +13785,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>41395</v>
       </c>
@@ -13792,7 +13805,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>41426</v>
       </c>
@@ -13818,7 +13831,7 @@
         <v>41453</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>381</v>
@@ -13838,7 +13851,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>41456</v>
       </c>
@@ -13858,7 +13871,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>41487</v>
       </c>
@@ -13878,7 +13891,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>41518</v>
       </c>
@@ -13904,7 +13917,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>41548</v>
       </c>
@@ -13924,7 +13937,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>41579</v>
       </c>
@@ -13944,7 +13957,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>41609</v>
       </c>
@@ -13970,7 +13983,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>306</v>
@@ -13989,7 +14002,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>382</v>
@@ -14006,7 +14019,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="48" t="s">
         <v>118</v>
       </c>
@@ -14028,7 +14041,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>41640</v>
       </c>
@@ -14052,7 +14065,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>172</v>
@@ -14074,7 +14087,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>41671</v>
       </c>
@@ -14098,7 +14111,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>385</v>
@@ -14115,7 +14128,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>149</v>
@@ -14137,7 +14150,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>41699</v>
       </c>
@@ -14161,7 +14174,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>391</v>
@@ -14183,7 +14196,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>41730</v>
       </c>
@@ -14207,7 +14220,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>132</v>
@@ -14231,7 +14244,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>181</v>
@@ -14255,7 +14268,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>41760</v>
       </c>
@@ -14281,7 +14294,7 @@
         <v>41796</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>395</v>
@@ -14301,7 +14314,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>41791</v>
       </c>
@@ -14327,7 +14340,7 @@
       </c>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>132</v>
@@ -14349,7 +14362,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>41821</v>
       </c>
@@ -14373,7 +14386,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>124</v>
@@ -14395,7 +14408,7 @@
         <v>41879</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>41852</v>
       </c>
@@ -14421,7 +14434,7 @@
       </c>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>132</v>
@@ -14443,7 +14456,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>41883</v>
       </c>
@@ -14471,7 +14484,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>399</v>
@@ -14491,7 +14504,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>41913</v>
       </c>
@@ -14517,7 +14530,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>181</v>
@@ -14541,7 +14554,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>400</v>
@@ -14561,7 +14574,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>41944</v>
       </c>
@@ -14587,7 +14600,7 @@
       </c>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>132</v>
@@ -14609,7 +14622,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>41974</v>
       </c>
@@ -14637,7 +14650,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="48" t="s">
         <v>119</v>
       </c>
@@ -14659,7 +14672,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>42005</v>
       </c>
@@ -14683,7 +14696,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>403</v>
@@ -14703,7 +14716,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>42036</v>
       </c>
@@ -14723,7 +14736,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>42064</v>
       </c>
@@ -14743,7 +14756,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>42095</v>
       </c>
@@ -14769,7 +14782,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>124</v>
@@ -14791,7 +14804,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>42125</v>
       </c>
@@ -14811,7 +14824,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>42156</v>
       </c>
@@ -14831,7 +14844,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>42186</v>
       </c>
@@ -14851,7 +14864,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>42217</v>
       </c>
@@ -14871,7 +14884,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>42248</v>
       </c>
@@ -14897,7 +14910,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>42278</v>
       </c>
@@ -14923,7 +14936,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>136</v>
@@ -14942,7 +14955,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>167</v>
@@ -14959,7 +14972,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>414</v>
@@ -14976,7 +14989,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>42309</v>
       </c>
@@ -15000,7 +15013,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>42339</v>
       </c>
@@ -15024,7 +15037,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>416</v>
@@ -15041,7 +15054,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="48" t="s">
         <v>120</v>
       </c>
@@ -15060,7 +15073,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>42370</v>
       </c>
@@ -15080,7 +15093,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>42401</v>
       </c>
@@ -15100,7 +15113,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>42430</v>
       </c>
@@ -15120,7 +15133,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>42461</v>
       </c>
@@ -15140,7 +15153,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>42491</v>
       </c>
@@ -15160,7 +15173,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>42522</v>
       </c>
@@ -15186,7 +15199,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>42552</v>
       </c>
@@ -15212,7 +15225,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>42583</v>
       </c>
@@ -15238,7 +15251,7 @@
         <v>42584</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>42614</v>
       </c>
@@ -15264,7 +15277,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>42644</v>
       </c>
@@ -15284,7 +15297,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>42675</v>
       </c>
@@ -15304,7 +15317,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>42705</v>
       </c>
@@ -15330,7 +15343,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="48" t="s">
         <v>121</v>
       </c>
@@ -15352,7 +15365,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>42736</v>
       </c>
@@ -15376,7 +15389,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>42767</v>
       </c>
@@ -15402,7 +15415,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>425</v>
@@ -15422,7 +15435,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>42795</v>
       </c>
@@ -15446,7 +15459,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>124</v>
@@ -15468,7 +15481,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>181</v>
@@ -15490,7 +15503,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>384</v>
@@ -15510,7 +15523,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>42826</v>
       </c>
@@ -15536,7 +15549,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>42856</v>
       </c>
@@ -15562,7 +15575,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>42887</v>
       </c>
@@ -15582,7 +15595,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>42917</v>
       </c>
@@ -15602,7 +15615,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>42948</v>
       </c>
@@ -15628,7 +15641,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>124</v>
@@ -15650,7 +15663,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>136</v>
@@ -15672,7 +15685,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>93</v>
@@ -15694,7 +15707,7 @@
         <v>43005</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>42979</v>
       </c>
@@ -15720,7 +15733,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>43009</v>
       </c>
@@ -15746,7 +15759,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>43040</v>
       </c>
@@ -15772,7 +15785,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
         <v>290</v>
@@ -15796,7 +15809,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>43070</v>
       </c>
@@ -15822,7 +15835,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="48" t="s">
         <v>46</v>
       </c>
@@ -15840,7 +15853,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>43101</v>
       </c>
@@ -15866,7 +15879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>43132</v>
       </c>
@@ -15894,7 +15907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>43160</v>
       </c>
@@ -15918,7 +15931,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>43191</v>
       </c>
@@ -15938,7 +15951,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="41">
         <v>43221</v>
       </c>
@@ -15958,7 +15971,7 @@
       <c r="J603" s="12"/>
       <c r="K603" s="15"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>43252</v>
       </c>
@@ -15984,7 +15997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>43282</v>
       </c>
@@ -16010,7 +16023,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>43313</v>
       </c>
@@ -16036,7 +16049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>440</v>
@@ -16058,7 +16071,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>441</v>
@@ -16080,7 +16093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>43344</v>
       </c>
@@ -16100,7 +16113,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>43374</v>
       </c>
@@ -16120,7 +16133,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>43405</v>
       </c>
@@ -16146,7 +16159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>43435</v>
       </c>
@@ -16172,7 +16185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="48" t="s">
         <v>58</v>
       </c>
@@ -16190,7 +16203,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>43466</v>
       </c>
@@ -16212,7 +16225,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>51</v>
@@ -16232,7 +16245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>49</v>
@@ -16256,7 +16269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>43497</v>
       </c>
@@ -16276,7 +16289,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>43525</v>
       </c>
@@ -16296,7 +16309,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>43556</v>
       </c>
@@ -16322,7 +16335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>43586</v>
       </c>
@@ -16346,7 +16359,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>47</v>
@@ -16370,7 +16383,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>43617</v>
       </c>
@@ -16390,7 +16403,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>43647</v>
       </c>
@@ -16416,7 +16429,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>49</v>
@@ -16438,7 +16451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>43678</v>
       </c>
@@ -16464,7 +16477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>43709</v>
       </c>
@@ -16490,7 +16503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>442</v>
@@ -16512,7 +16525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>51</v>
@@ -16532,7 +16545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>43739</v>
       </c>
@@ -16552,7 +16565,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>43770</v>
       </c>
@@ -16578,7 +16591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>49</v>
@@ -16600,11 +16613,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>43800</v>
       </c>
-      <c r="B632" s="20"/>
+      <c r="B632" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C632" s="13">
         <v>1.25</v>
       </c>
@@ -16615,12 +16630,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H632" s="39"/>
+      <c r="H632" s="39">
+        <v>1</v>
+      </c>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="20"/>
-    </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K632" s="20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="23" t="s">
         <v>72</v>
       </c>
@@ -16638,7 +16657,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>43831</v>
       </c>
@@ -16662,7 +16681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>51</v>
@@ -16682,7 +16701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
         <v>51</v>
@@ -16702,7 +16721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>43862</v>
       </c>
@@ -16722,7 +16741,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>43891</v>
       </c>
@@ -16742,7 +16761,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>43922</v>
       </c>
@@ -16762,7 +16781,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>43952</v>
       </c>
@@ -16782,7 +16801,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>43983</v>
       </c>
@@ -16802,7 +16821,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>44013</v>
       </c>
@@ -16828,7 +16847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>47</v>
@@ -16850,7 +16869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>44044</v>
       </c>
@@ -16870,7 +16889,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>44075</v>
       </c>
@@ -16890,7 +16909,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>44105</v>
       </c>
@@ -16910,7 +16929,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>44136</v>
       </c>
@@ -16930,7 +16949,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>44166</v>
       </c>
@@ -16954,7 +16973,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="48" t="s">
         <v>80</v>
       </c>
@@ -16972,7 +16991,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>44197</v>
       </c>
@@ -16998,7 +17017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>44228</v>
       </c>
@@ -17018,7 +17037,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>44256</v>
       </c>
@@ -17038,7 +17057,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>44287</v>
       </c>
@@ -17058,7 +17077,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>44317</v>
       </c>
@@ -17078,7 +17097,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>44348</v>
       </c>
@@ -17102,7 +17121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>44378</v>
       </c>
@@ -17122,7 +17141,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <v>44409</v>
       </c>
@@ -17142,7 +17161,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>44440</v>
       </c>
@@ -17168,7 +17187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
         <v>44470</v>
       </c>
@@ -17192,7 +17211,7 @@
         <v>44419</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>44501</v>
       </c>
@@ -17212,7 +17231,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
         <v>44531</v>
       </c>
@@ -17238,7 +17257,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>84</v>
@@ -17258,7 +17277,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="48" t="s">
         <v>86</v>
       </c>
@@ -17276,7 +17295,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>44562</v>
       </c>
@@ -17302,7 +17321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
         <v>44593</v>
       </c>
@@ -17322,7 +17341,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>44621</v>
       </c>
@@ -17344,7 +17363,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
         <v>44652</v>
       </c>
@@ -17366,7 +17385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
         <v>44682</v>
       </c>
@@ -17386,7 +17405,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>44713</v>
       </c>
@@ -17412,7 +17431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>440</v>
@@ -17434,7 +17453,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>44743</v>
       </c>
@@ -17454,7 +17473,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <v>44774</v>
       </c>
@@ -17474,7 +17493,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <v>44805</v>
       </c>
@@ -17500,7 +17519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <v>44835</v>
       </c>
@@ -17520,7 +17539,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>44866</v>
       </c>
@@ -17546,7 +17565,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <v>44896</v>
       </c>
@@ -17572,7 +17591,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="48" t="s">
         <v>97</v>
       </c>
@@ -17590,7 +17609,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="49"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <v>44927</v>
       </c>
@@ -17610,7 +17629,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>44958</v>
       </c>
@@ -17630,7 +17649,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>44986</v>
       </c>
@@ -17656,7 +17675,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>45017</v>
       </c>
@@ -17676,7 +17695,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>45047</v>
       </c>
@@ -17702,7 +17721,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20" t="s">
         <v>124</v>
@@ -17724,7 +17743,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20" t="s">
         <v>136</v>
@@ -17746,7 +17765,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>45078</v>
       </c>
@@ -17772,7 +17791,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="20" t="s">
         <v>136</v>
@@ -17794,20 +17813,22 @@
         <v>447</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>45108</v>
       </c>
       <c r="B687" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C687" s="13"/>
+      <c r="C687" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D687" s="39"/>
       <c r="E687" s="9"/>
       <c r="F687" s="20"/>
-      <c r="G687" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G687" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H687" s="39">
         <v>2</v>
@@ -17818,7 +17839,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20" t="s">
         <v>136</v>
@@ -17840,7 +17861,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20" t="s">
         <v>136</v>
@@ -17862,114 +17883,144 @@
         <v>450</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>45139</v>
       </c>
-      <c r="B690" s="20"/>
-      <c r="C690" s="13"/>
+      <c r="B690" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C690" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D690" s="39"/>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
-      <c r="G690" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H690" s="39"/>
+      <c r="G690" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H690" s="39">
+        <v>2</v>
+      </c>
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
-      <c r="K690" s="20"/>
-    </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A691" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B691" s="20"/>
+      <c r="K690" s="20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A691" s="40"/>
+      <c r="B691" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C691" s="13"/>
       <c r="D691" s="39"/>
       <c r="E691" s="9"/>
-      <c r="F691" s="20"/>
+      <c r="F691" s="51"/>
       <c r="G691" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H691" s="39"/>
+      <c r="H691" s="39">
+        <v>1</v>
+      </c>
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
-      <c r="K691" s="20"/>
-    </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K691" s="49">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B692" s="20"/>
-      <c r="C692" s="13"/>
-      <c r="D692" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B692" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C692" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D692" s="39">
+        <v>3</v>
+      </c>
       <c r="E692" s="9"/>
       <c r="F692" s="20"/>
-      <c r="G692" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G692" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H692" s="39"/>
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
-      <c r="K692" s="20"/>
-    </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K692" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B693" s="20"/>
-      <c r="C693" s="13"/>
+      <c r="C693" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D693" s="39"/>
       <c r="E693" s="9"/>
       <c r="F693" s="20"/>
-      <c r="G693" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G693" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H693" s="39"/>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B694" s="20"/>
-      <c r="C694" s="13"/>
+      <c r="C694" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G694" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H694" s="39"/>
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A695" s="40"/>
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A695" s="40">
+        <v>45261</v>
+      </c>
       <c r="B695" s="20"/>
-      <c r="C695" s="13"/>
+      <c r="C695" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D695" s="39"/>
       <c r="E695" s="9"/>
       <c r="F695" s="20"/>
-      <c r="G695" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G695" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H695" s="39"/>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A696" s="40"/>
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A696" s="48" t="s">
+        <v>454</v>
+      </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
       <c r="D696" s="39"/>
@@ -17984,183 +18035,231 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A697" s="40"/>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A697" s="40">
+        <v>45322</v>
+      </c>
       <c r="B697" s="20"/>
-      <c r="C697" s="13"/>
+      <c r="C697" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D697" s="39"/>
       <c r="E697" s="9"/>
       <c r="F697" s="20"/>
-      <c r="G697" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G697" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H697" s="39"/>
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A698" s="40"/>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A698" s="40">
+        <v>45351</v>
+      </c>
       <c r="B698" s="20"/>
-      <c r="C698" s="13"/>
+      <c r="C698" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D698" s="39"/>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
-      <c r="G698" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G698" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H698" s="39"/>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A699" s="40"/>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A699" s="40">
+        <v>45382</v>
+      </c>
       <c r="B699" s="20"/>
-      <c r="C699" s="13"/>
+      <c r="C699" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D699" s="39"/>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G699" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H699" s="39"/>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A700" s="40"/>
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A700" s="40">
+        <v>45412</v>
+      </c>
       <c r="B700" s="20"/>
-      <c r="C700" s="13"/>
+      <c r="C700" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G700" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H700" s="39"/>
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A701" s="40"/>
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A701" s="40">
+        <v>45443</v>
+      </c>
       <c r="B701" s="20"/>
-      <c r="C701" s="13"/>
+      <c r="C701" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D701" s="39"/>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
-      <c r="G701" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G701" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H701" s="39"/>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A702" s="40"/>
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A702" s="40">
+        <v>45473</v>
+      </c>
       <c r="B702" s="20"/>
-      <c r="C702" s="13"/>
+      <c r="C702" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D702" s="39"/>
       <c r="E702" s="9"/>
       <c r="F702" s="20"/>
-      <c r="G702" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G702" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H702" s="39"/>
       <c r="I702" s="9"/>
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A703" s="40"/>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A703" s="40">
+        <v>45504</v>
+      </c>
       <c r="B703" s="20"/>
-      <c r="C703" s="13"/>
+      <c r="C703" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D703" s="39"/>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
-      <c r="G703" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G703" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H703" s="39"/>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A704" s="40"/>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A704" s="40">
+        <v>45535</v>
+      </c>
       <c r="B704" s="20"/>
-      <c r="C704" s="13"/>
+      <c r="C704" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D704" s="39"/>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G704" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H704" s="39"/>
       <c r="I704" s="9"/>
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A705" s="40"/>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A705" s="40">
+        <v>45565</v>
+      </c>
       <c r="B705" s="20"/>
-      <c r="C705" s="13"/>
+      <c r="C705" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D705" s="39"/>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G705" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H705" s="39"/>
       <c r="I705" s="9"/>
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A706" s="40"/>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A706" s="40">
+        <v>45596</v>
+      </c>
       <c r="B706" s="20"/>
-      <c r="C706" s="13"/>
+      <c r="C706" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D706" s="39"/>
       <c r="E706" s="9"/>
       <c r="F706" s="20"/>
-      <c r="G706" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G706" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H706" s="39"/>
       <c r="I706" s="9"/>
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A707" s="40"/>
-      <c r="B707" s="20"/>
-      <c r="C707" s="13"/>
-      <c r="D707" s="39"/>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A707" s="40">
+        <v>45602</v>
+      </c>
+      <c r="B707" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C707" s="13">
+        <v>0.2919999999999997</v>
+      </c>
+      <c r="D707" s="39">
+        <v>5</v>
+      </c>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
-      <c r="G707" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G707" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.2919999999999997</v>
       </c>
       <c r="H707" s="39"/>
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18176,7 +18275,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18192,7 +18291,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18208,7 +18307,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18224,7 +18323,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -18240,7 +18339,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -18256,7 +18355,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -18272,7 +18371,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -18288,7 +18387,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -18304,7 +18403,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -18320,7 +18419,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -18336,7 +18435,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -18352,7 +18451,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -18368,7 +18467,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -18384,7 +18483,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -18400,21 +18499,37 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A723" s="41"/>
-      <c r="B723" s="15"/>
-      <c r="C723" s="42"/>
-      <c r="D723" s="43"/>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A723" s="40"/>
+      <c r="B723" s="20"/>
+      <c r="C723" s="13"/>
+      <c r="D723" s="39"/>
       <c r="E723" s="9"/>
-      <c r="F723" s="15"/>
-      <c r="G723" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H723" s="43"/>
+      <c r="F723" s="20"/>
+      <c r="G723" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H723" s="39"/>
       <c r="I723" s="9"/>
-      <c r="J723" s="12"/>
-      <c r="K723" s="15"/>
+      <c r="J723" s="11"/>
+      <c r="K723" s="20"/>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A724" s="41"/>
+      <c r="B724" s="15"/>
+      <c r="C724" s="42"/>
+      <c r="D724" s="43"/>
+      <c r="E724" s="9"/>
+      <c r="F724" s="15"/>
+      <c r="G724" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H724" s="43"/>
+      <c r="I724" s="9"/>
+      <c r="J724" s="12"/>
+      <c r="K724" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18431,15 +18546,15 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -18457,28 +18572,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -18491,7 +18606,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18520,7 +18635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18536,27 +18651,29 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0.18100000000000002</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="47">
+        <v>24</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>23</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.2919999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18577,7 +18694,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18604,7 +18721,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18630,7 +18747,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18656,7 +18773,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18682,7 +18799,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18708,7 +18825,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18734,7 +18851,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18760,7 +18877,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18786,7 +18903,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18806,7 +18923,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18826,7 +18943,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18846,7 +18963,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18867,7 +18984,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18888,7 +19005,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18909,7 +19026,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18930,7 +19047,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18951,7 +19068,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18972,7 +19089,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18993,7 +19110,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19014,7 +19131,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19035,7 +19152,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19056,7 +19173,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19077,7 +19194,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19098,7 +19215,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19119,7 +19236,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19140,7 +19257,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19161,7 +19278,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19182,7 +19299,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19203,7 +19320,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19224,7 +19341,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19245,7 +19362,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19266,7 +19383,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19275,7 +19392,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19284,7 +19401,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19293,7 +19410,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19302,7 +19419,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19311,7 +19428,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19320,7 +19437,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19329,7 +19446,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19338,7 +19455,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19347,7 +19464,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19356,7 +19473,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19365,7 +19482,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19374,7 +19491,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19383,7 +19500,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19392,7 +19509,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19401,7 +19518,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19410,7 +19527,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19419,7 +19536,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19428,7 +19545,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19437,7 +19554,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19446,7 +19563,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19455,7 +19572,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19464,7 +19581,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19473,7 +19590,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19482,7 +19599,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19491,7 +19608,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19500,7 +19617,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19509,7 +19626,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19518,7 +19635,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19527,7 +19644,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/OLEGARIO NENITA.xlsx
+++ b/REGULAR/OJT/OLEGARIO NENITA.xlsx
@@ -2485,9 +2485,9 @@
   <dimension ref="A2:K728"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A688" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A691" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="I694" sqref="I694"/>
+      <selection pane="bottomLeft" activeCell="K701" sqref="K701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2654,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>82.059999999999945</v>
+        <v>73.309999999999945</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2664,7 +2664,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.397999999999968</v>
+        <v>49.647999999999968</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18139,36 +18139,36 @@
       <c r="A701" s="40">
         <v>45322</v>
       </c>
-      <c r="B701" s="20"/>
-      <c r="C701" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="B701" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C701" s="13"/>
       <c r="D701" s="39"/>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
-      <c r="G701" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G701" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H701" s="39"/>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
-      <c r="K701" s="20"/>
+      <c r="K701" s="49">
+        <v>45307</v>
+      </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <v>45351</v>
       </c>
       <c r="B702" s="20"/>
-      <c r="C702" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C702" s="13"/>
       <c r="D702" s="39"/>
       <c r="E702" s="9"/>
       <c r="F702" s="20"/>
-      <c r="G702" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G702" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H702" s="39"/>
       <c r="I702" s="9"/>
@@ -18180,15 +18180,13 @@
         <v>45382</v>
       </c>
       <c r="B703" s="20"/>
-      <c r="C703" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C703" s="13"/>
       <c r="D703" s="39"/>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
-      <c r="G703" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G703" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H703" s="39"/>
       <c r="I703" s="9"/>
@@ -18200,15 +18198,13 @@
         <v>45412</v>
       </c>
       <c r="B704" s="20"/>
-      <c r="C704" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C704" s="13"/>
       <c r="D704" s="39"/>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G704" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H704" s="39"/>
       <c r="I704" s="9"/>
@@ -18220,15 +18216,13 @@
         <v>45443</v>
       </c>
       <c r="B705" s="20"/>
-      <c r="C705" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C705" s="13"/>
       <c r="D705" s="39"/>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H705" s="39"/>
       <c r="I705" s="9"/>
@@ -18240,15 +18234,13 @@
         <v>45473</v>
       </c>
       <c r="B706" s="20"/>
-      <c r="C706" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C706" s="13"/>
       <c r="D706" s="39"/>
       <c r="E706" s="9"/>
       <c r="F706" s="20"/>
-      <c r="G706" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H706" s="39"/>
       <c r="I706" s="9"/>
@@ -18260,15 +18252,13 @@
         <v>45504</v>
       </c>
       <c r="B707" s="20"/>
-      <c r="C707" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C707" s="13"/>
       <c r="D707" s="39"/>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
-      <c r="G707" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G707" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H707" s="39"/>
       <c r="I707" s="9"/>
@@ -18280,15 +18270,13 @@
         <v>45535</v>
       </c>
       <c r="B708" s="20"/>
-      <c r="C708" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C708" s="13"/>
       <c r="D708" s="39"/>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
-      <c r="G708" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H708" s="39"/>
       <c r="I708" s="9"/>
@@ -18300,15 +18288,13 @@
         <v>45565</v>
       </c>
       <c r="B709" s="20"/>
-      <c r="C709" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C709" s="13"/>
       <c r="D709" s="39"/>
       <c r="E709" s="9"/>
       <c r="F709" s="20"/>
-      <c r="G709" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G709" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H709" s="39"/>
       <c r="I709" s="9"/>
@@ -18320,15 +18306,13 @@
         <v>45596</v>
       </c>
       <c r="B710" s="20"/>
-      <c r="C710" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C710" s="13"/>
       <c r="D710" s="39"/>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
-      <c r="G710" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G710" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H710" s="39"/>
       <c r="I710" s="9"/>
@@ -18339,20 +18323,14 @@
       <c r="A711" s="40">
         <v>45602</v>
       </c>
-      <c r="B711" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C711" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D711" s="39">
-        <v>5</v>
-      </c>
+      <c r="B711" s="20"/>
+      <c r="C711" s="13"/>
+      <c r="D711" s="39"/>
       <c r="E711" s="9"/>
       <c r="F711" s="20"/>
-      <c r="G711" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G711" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H711" s="39"/>
       <c r="I711" s="9"/>
